--- a/data/hotels_by_city/Dallas/Dallas_shard_629.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_629.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="265">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,675 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r512868820-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>224284</t>
+  </si>
+  <si>
+    <t>512868820</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Clean and quiet</t>
+  </si>
+  <si>
+    <t>Clean room, quiet. Okay for the price for one night. Front desk not very friendly at check in...location was in a great place for where I needed to be. Would stay again next time I'm in the Ft Worth area.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r492326763-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>492326763</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Looked ordinary from the outside, not friendly staff, shuttle driver was great. Reasonably clean but aging, quiet once planes stopped for the night, good breakfast. A lot of pilots an hostesses stay here so must be ok, we only stayed a night</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r489377489-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>489377489</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graduation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here during a visit. It was clean and the people were nice enough. They had breakfast. Choices of cereal oatmeal scrambled eggs biscuits and gravy pan sausage milk juice and coffee. They also had some pastry items as well as waffles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r411949561-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>411949561</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenient Location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here while attending the SWBC at the Ft. Worth convention center. The hotel seems a little older, but it seemed like they were in the process of remodeling. It's perfect for a couple of nights stay. It's right off of the interstate, so it's very convenient if you're traveling. Only about a 10 minute drive to downtown Ft. Worth. </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r396250055-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>396250055</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice bright lobby and easy check in/out. Our bed was very comfortable and the room had a frig, microwave, desk, good T.V., etc. The only drawbacks were that the fan in the restroom did not work and the carpet was not clean. We could smell a slight cigarette odor. Breakfast was excellent and the pool looked clean, although it could use some decor. </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r394620601-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>394620601</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>We stayed there this past weekend and it was just lovely. The bed was perfect the staff very accommodating and the hotel was quiet. The pool looked inviting though we never had the chance to use it. The breakfast is amazing, and the price overall was outstanding. I'd stay here again in a heartbeat!  Marriott has,serious competition!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r379803769-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>379803769</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Terrible service.   It is like hell.</t>
+  </si>
+  <si>
+    <t>Please, dont stay here.  The customer service is terribleeeee!!!   The room has spiders and the manager didnt want to give us another room after we complained.  The elevator is scary like Disneyland Tower of Terror.  The place is dirty, too.Quality????  Not even in the third world.Please, bring your family here only if they want to visit a haunted house.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r367872431-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>367872431</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>Poor customer service and room comfort</t>
+  </si>
+  <si>
+    <t>There is considerable construction going on around this facility.  When I went to bed at  10:00 P.M.  there was loud construction sounds and grinding, and banging, clanging and heavy duty trucking noises.  Finally at 1:30 A.M  I called the front office to complain  I was advised that they could not give me another room then or for my next nights stay.The construction continued through the night, I did NOT get any sleep the entire time. I attempted to get a refund and they refused.  I am stopping the charge on my credit card.I have sound bites and photos of this problem</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r358959080-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>358959080</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>A gem of a place.</t>
+  </si>
+  <si>
+    <t>We arrived at 12.30 nearly 3 hours before the official check in time and were given a room straight away. This was a bonus as we had to meet friends in Fort Worth early evening. The guy on the desk ( Suraj) was very helpful and pleasant he asked us if we needed anything just to let him know and he would do his best to help out. The room was very nice and despite being close to HI 35 there was no traffic noise whatsoever. The breakfast was more than ample ( if you want to pay for it go to Cracker Barrel 25 yards away) with sausage, egg, buscuits, gravy, a choice of cereal, waffles, fruit plus lots of other stuff. The dining area was always kept clean and tidy no matter how many people were having breakfast. Its a 10 minute car ride to the Fort Worth Stockyards ($15 by cab) and is probably half the price of hotels down there. We had some trouble with the TV one night ( it just went off without any warning)so we called reception. Within 5 minutes a guy came up and fixed it. He explained that they were improving the rooms and the cable to the tv sometimes comes out as its a little short but they were working on the problem. Although it was spring break and there was a party of young girls checked in for the...We arrived at 12.30 nearly 3 hours before the official check in time and were given a room straight away. This was a bonus as we had to meet friends in Fort Worth early evening. The guy on the desk ( Suraj) was very helpful and pleasant he asked us if we needed anything just to let him know and he would do his best to help out. The room was very nice and despite being close to HI 35 there was no traffic noise whatsoever. The breakfast was more than ample ( if you want to pay for it go to Cracker Barrel 25 yards away) with sausage, egg, buscuits, gravy, a choice of cereal, waffles, fruit plus lots of other stuff. The dining area was always kept clean and tidy no matter how many people were having breakfast. Its a 10 minute car ride to the Fort Worth Stockyards ($15 by cab) and is probably half the price of hotels down there. We had some trouble with the TV one night ( it just went off without any warning)so we called reception. Within 5 minutes a guy came up and fixed it. He explained that they were improving the rooms and the cable to the tv sometimes comes out as its a little short but they were working on the problem. Although it was spring break and there was a party of young girls checked in for the weekend we hear no noise. We asked for a late checkout as our flight back to the UK wasn't until early evening and again it was "no problem." and there was no extra charges. We needed to check in on line for our flight and the receptionist Suraj Patel did that for us. He even printed out our boarding passes!!! The staff here go over and above what is expected of them and I can find no faults with anything at the hotel. It was a bargain for the price we paid. Next time we're in Fort Worth this would be my hotel of choice. Excellent value for money.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>We arrived at 12.30 nearly 3 hours before the official check in time and were given a room straight away. This was a bonus as we had to meet friends in Fort Worth early evening. The guy on the desk ( Suraj) was very helpful and pleasant he asked us if we needed anything just to let him know and he would do his best to help out. The room was very nice and despite being close to HI 35 there was no traffic noise whatsoever. The breakfast was more than ample ( if you want to pay for it go to Cracker Barrel 25 yards away) with sausage, egg, buscuits, gravy, a choice of cereal, waffles, fruit plus lots of other stuff. The dining area was always kept clean and tidy no matter how many people were having breakfast. Its a 10 minute car ride to the Fort Worth Stockyards ($15 by cab) and is probably half the price of hotels down there. We had some trouble with the TV one night ( it just went off without any warning)so we called reception. Within 5 minutes a guy came up and fixed it. He explained that they were improving the rooms and the cable to the tv sometimes comes out as its a little short but they were working on the problem. Although it was spring break and there was a party of young girls checked in for the...We arrived at 12.30 nearly 3 hours before the official check in time and were given a room straight away. This was a bonus as we had to meet friends in Fort Worth early evening. The guy on the desk ( Suraj) was very helpful and pleasant he asked us if we needed anything just to let him know and he would do his best to help out. The room was very nice and despite being close to HI 35 there was no traffic noise whatsoever. The breakfast was more than ample ( if you want to pay for it go to Cracker Barrel 25 yards away) with sausage, egg, buscuits, gravy, a choice of cereal, waffles, fruit plus lots of other stuff. The dining area was always kept clean and tidy no matter how many people were having breakfast. Its a 10 minute car ride to the Fort Worth Stockyards ($15 by cab) and is probably half the price of hotels down there. We had some trouble with the TV one night ( it just went off without any warning)so we called reception. Within 5 minutes a guy came up and fixed it. He explained that they were improving the rooms and the cable to the tv sometimes comes out as its a little short but they were working on the problem. Although it was spring break and there was a party of young girls checked in for the weekend we hear no noise. We asked for a late checkout as our flight back to the UK wasn't until early evening and again it was "no problem." and there was no extra charges. We needed to check in on line for our flight and the receptionist Suraj Patel did that for us. He even printed out our boarding passes!!! The staff here go over and above what is expected of them and I can find no faults with anything at the hotel. It was a bargain for the price we paid. Next time we're in Fort Worth this would be my hotel of choice. Excellent value for money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r329759337-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>329759337</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Cheap hotel</t>
+  </si>
+  <si>
+    <t>It was clean and cheap. Thats about it. Noisy air conditioner that would raise the dead! Vent fan in bathroom that was extremely noisy too. We had to change rooms for a bad toilet . Other than that it was clean room. Cheap and thats about it. Spend a little more money.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r323678477-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>323678477</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lots of Area Constitution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel is clean and well taken care of. Staff was helpful and knowledgeable. The area is under construction so getting to the hotel is a little harder than it should be, just have to pay a little more attention when getting to the hotel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r308633775-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>308633775</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>very clean.</t>
+  </si>
+  <si>
+    <t>Internet was terrible unless you are on the 1st floor or if you want to sit in the lobby the entire you are at hotel.  I had to walk down stairs every time I wanted to do something on my I-pad or tablet . The pool was very clean however it looked somewhat rundown. Fort Worth is doing a lot of road construction around this area so if you miss your exit you better have a GPS with you to find your way back to this hotel. The front desk people are ok.  I went down stairs 2 times two talk to them about things and each time they skipped over me and would ask the men behind me and beside me if they needed help. I quickly fixed that both times. I really think they do not care for women at that hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Internet was terrible unless you are on the 1st floor or if you want to sit in the lobby the entire you are at hotel.  I had to walk down stairs every time I wanted to do something on my I-pad or tablet . The pool was very clean however it looked somewhat rundown. Fort Worth is doing a lot of road construction around this area so if you miss your exit you better have a GPS with you to find your way back to this hotel. The front desk people are ok.  I went down stairs 2 times two talk to them about things and each time they skipped over me and would ask the men behind me and beside me if they needed help. I quickly fixed that both times. I really think they do not care for women at that hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r296804295-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>296804295</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>VERY UNHAPPY!!!</t>
+  </si>
+  <si>
+    <t>My room was a non smoking room well it was suppose to be and the Jacuzzi tub had burns all over the tub and you could tell it had been previously smoked in. I had booked 2 choice reward nights one for Friday and on for Saturday and Saturday came along and guest what I had to check out because both my nights had been booked on Friday night and the General Manager Mr. Patel could not be bothered with emergency's on the weekend so I had to wait until Tuesday and then he would not grant me my 8,000 points back. VERY VERY WRONG!!!!!!!! So I paid for 2 rooms  and only stayed in one and no one cared. The revenue was more important than there hotel guest at least to this manager. You treat people the way you would like to be treated. Also the pool has been closed for over 2 weeks because they failed the inspection, that was also a HUGE let down.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>My room was a non smoking room well it was suppose to be and the Jacuzzi tub had burns all over the tub and you could tell it had been previously smoked in. I had booked 2 choice reward nights one for Friday and on for Saturday and Saturday came along and guest what I had to check out because both my nights had been booked on Friday night and the General Manager Mr. Patel could not be bothered with emergency's on the weekend so I had to wait until Tuesday and then he would not grant me my 8,000 points back. VERY VERY WRONG!!!!!!!! So I paid for 2 rooms  and only stayed in one and no one cared. The revenue was more important than there hotel guest at least to this manager. You treat people the way you would like to be treated. Also the pool has been closed for over 2 weeks because they failed the inspection, that was also a HUGE let down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r290712843-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>290712843</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Horrible Experience Will file</t>
+  </si>
+  <si>
+    <t>On trip with sports team, wanted 2 rooms and the rooms were saturated in smoke. The kids went up to the room and got stuck on the elevator. I told the host that I have 2 kids with ahsma! he told us that's all they had. , and he can spray it. I told him that we cant stay here so just give us our refund. He says he couldn't, and we didn't even drop any luggage in the rooms.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r284266068-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>284266068</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>review of my experience</t>
+  </si>
+  <si>
+    <t>for the most part average. They did not give me my wake up call two days in a row. I was there for a business convention and I was late both days but their phone system did not work properly. Did not offer any compensation for not providing proper service. Cleanliness was average. Doors and rooms outdated and poor repair. Door did not close properly.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r279357581-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>279357581</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>This is an older hotel just on the edge of Downtown. The room was quite and comfortable. The hotel has an outdoor pool that is ok. Cracker Barrel is just in front of the building which was very nice to visit and eat at since we don't have one near my current home.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r278833532-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>278833532</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Unpleasant Experience</t>
+  </si>
+  <si>
+    <t>It took 30 minutes to check in even though we prepaid.  The room was not clean.  Many of the items on the breakfast buffet were empty.  We informed the desk attendant with no action from him.  The trash can in the breakfast area was overflowing.  The desk person walked past it several times but did nothing.  There was not any other attendant at breakfast.  We requested a wake up call that did not come.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r266656738-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>266656738</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>TRIPLE CHARGED DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>My daughter was recently caught up in a horrible storm and had to find a place to stay immediately. When she checked out she received her receipt for one night. However her bank account had been debited 3 times for the one night! We've called 100's of times only to be told the manager would call us back, which he never did. We will be filing a police report for fraud as well as unauthorized charges in our card with the bank. DO NOT STAY HERE!</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r225067319-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>225067319</t>
+  </si>
+  <si>
+    <t>08/28/2014</t>
+  </si>
+  <si>
+    <t>Good 2 day stay</t>
+  </si>
+  <si>
+    <t>Recently stayed here for 2 days waiting on truck to be repaired at nearby shop. Room was big and clean. Plenty of fresh towels. TV channel selection could be better! Pool needed a good cleaning but was still clean enough to swim. Front desk guy was great our entire stay! Would definitely stay here again if needed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r213660408-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>213660408</t>
+  </si>
+  <si>
+    <t>07/04/2014</t>
+  </si>
+  <si>
+    <t>Used to be great!  ....not any more.</t>
+  </si>
+  <si>
+    <t>We have stayed here almost one weekend a month for the last four years.  It was an excellent place, well kept, good location, great staff, etc.  However, this weekend has been a turning point.  The room smelled like strong odor of urine.  We asked to change rooms.  They told us we could right after lunch.  We went to eat, came back, and the new attendant said they had no openings and were just sorry.  :(  We tried to get ice; both machines were broken down and told, ....sorry.  Our toilet stopped up.  Twice we called for a plunger.  No response; then, the attendant said, you're not supposed to flush toilet paper at this hotel anymore.  Some kind of problem, not sure what.  Went swimming last night.  At least 15 people that were not staying here were in the pool.  They said it was okay as they knew someone that worked here.   So, no swimming, too crowded and had to step over their beer bottles around the pool.  This has been a great place for so long, but now, we will have to take our FTW stays elsewhere.  It's sad to see it go down the way it has.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>We have stayed here almost one weekend a month for the last four years.  It was an excellent place, well kept, good location, great staff, etc.  However, this weekend has been a turning point.  The room smelled like strong odor of urine.  We asked to change rooms.  They told us we could right after lunch.  We went to eat, came back, and the new attendant said they had no openings and were just sorry.  :(  We tried to get ice; both machines were broken down and told, ....sorry.  Our toilet stopped up.  Twice we called for a plunger.  No response; then, the attendant said, you're not supposed to flush toilet paper at this hotel anymore.  Some kind of problem, not sure what.  Went swimming last night.  At least 15 people that were not staying here were in the pool.  They said it was okay as they knew someone that worked here.   So, no swimming, too crowded and had to step over their beer bottles around the pool.  This has been a great place for so long, but now, we will have to take our FTW stays elsewhere.  It's sad to see it go down the way it has.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r209535714-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>209535714</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>2nd worst hotel I've ever stayed in</t>
+  </si>
+  <si>
+    <t>Can't recommend this hotel to others.  While the property itself looks OK, there were a few things that really bothered me.  The main thing was the position of my room to the back parking lot which is lit very brightly.  The light shined through the cracks in the curtains directly onto my face in the bed closest to the window.  There was no escaping this and the hotel should really consider installing shutters or something that completely covers the windows in these rooms.  I also saw 2 of the largest cockroaches I've ever seen in this hotel.  One was on the wall in the hallway outside my room and the other was IN my room.  The shower curtain wasn't affixed well, so the curtain rod and curtain actually fell onto my son while he was taking a shower.  Granted, there are worse hotels out there and it's hard to find something pet friendly, but I would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Can't recommend this hotel to others.  While the property itself looks OK, there were a few things that really bothered me.  The main thing was the position of my room to the back parking lot which is lit very brightly.  The light shined through the cracks in the curtains directly onto my face in the bed closest to the window.  There was no escaping this and the hotel should really consider installing shutters or something that completely covers the windows in these rooms.  I also saw 2 of the largest cockroaches I've ever seen in this hotel.  One was on the wall in the hallway outside my room and the other was IN my room.  The shower curtain wasn't affixed well, so the curtain rod and curtain actually fell onto my son while he was taking a shower.  Granted, there are worse hotels out there and it's hard to find something pet friendly, but I would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r207530778-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>207530778</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>would NOT go back</t>
+  </si>
+  <si>
+    <t>the hotel is clean and was in a good location for us.  My problem was the mattress was TERRIBLE! It sloped to center and I have problems with my back. I awoke at 2am with terrible pain which forced me to stay on the outer 5" where the metal support is located.   In the morning I spoke with the front desk about my problem. I was told they do not have extra mattresses. I asked if they would flip it or trade it with one from  a different room.  NOTHING was done.      Also we asked for ketchup and mustard for breakfast. They don't carry that and WHY would I want it.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>the hotel is clean and was in a good location for us.  My problem was the mattress was TERRIBLE! It sloped to center and I have problems with my back. I awoke at 2am with terrible pain which forced me to stay on the outer 5" where the metal support is located.   In the morning I spoke with the front desk about my problem. I was told they do not have extra mattresses. I asked if they would flip it or trade it with one from  a different room.  NOTHING was done.      Also we asked for ketchup and mustard for breakfast. They don't carry that and WHY would I want it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r202128321-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>202128321</t>
+  </si>
+  <si>
+    <t>04/21/2014</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights while we visited The Stockyards and went to the rodeo.Firstly, we are grateful to the desk staff who picked up our video camera after i left it on the table in reception when we got into our taxi. We got to the rodeo and realised that we'd left our camera in a public reception area back at the hotel. We called them and were very pleased that a member of staff had spotted it and had it safe behind the reception desk! Phew! Thank you.We'd certainly stay here again if we were in Fort Worth.It is within 10 minutes driving of The Stockyards, it's clean, and the staff are efficient.There is a Cracker Barrel right next door if you want to eat and not drive. It's literally 2 minutes walk.All in all, rooms are ok, breakfast was ok, and the location is very handy.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights while we visited The Stockyards and went to the rodeo.Firstly, we are grateful to the desk staff who picked up our video camera after i left it on the table in reception when we got into our taxi. We got to the rodeo and realised that we'd left our camera in a public reception area back at the hotel. We called them and were very pleased that a member of staff had spotted it and had it safe behind the reception desk! Phew! Thank you.We'd certainly stay here again if we were in Fort Worth.It is within 10 minutes driving of The Stockyards, it's clean, and the staff are efficient.There is a Cracker Barrel right next door if you want to eat and not drive. It's literally 2 minutes walk.All in all, rooms are ok, breakfast was ok, and the location is very handy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r194196348-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>194196348</t>
+  </si>
+  <si>
+    <t>02/15/2014</t>
+  </si>
+  <si>
+    <t>Nice Motel</t>
+  </si>
+  <si>
+    <t>We stayed three days while truck in shop.  Clean and quiet.  The beds are comfortable.  Staff never at desk.  Always have to ring bell and wait.  Taxi included in room for higher free than posted rate.  Smoking rooms mixed every other door on 2nd and third floor.  Only non smoking floor is 1st.  Smoke reeked in halls</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r182768297-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>182768297</t>
+  </si>
+  <si>
+    <t>10/28/2013</t>
+  </si>
+  <si>
+    <t>Overall, a nice stay</t>
+  </si>
+  <si>
+    <t>We were here for two days in October and we were pleasantly surprised by the clean and comfortable room.  We had obtained a promotional discount that made it an even better value.  There were only two restaurants close by; a McDonald's about a block or so to the south and a Cracker Barrel next door to the hotel.  The location was convenient to downtown Fort Worth, only about five miles away but the combination of major road construction and heavy traffic on I-35W was the biggest headache to an otherwise pleasant stay.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r156587430-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>156587430</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>It was ok</t>
+  </si>
+  <si>
+    <t>The location worked great for what we needed. Nice outdoor pool. Felt like a safe area. Our room was nice &amp; clean.  They were out of several breakfast items...could have maintained better.  Fair price for what we had.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r150143192-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>150143192</t>
+  </si>
+  <si>
+    <t>01/20/2013</t>
+  </si>
+  <si>
+    <t>Could have been worse, but could have been better...</t>
+  </si>
+  <si>
+    <t>When I walked into the hotel lobby, the gentleman that was working the front desk was lounging in a chair in front of the television?  I understand from the badly written "No Vacancies" sign that the hotel was full, however what about those of us that had reservations?Also, when I arrived to breakfast there was no attendant to make sure it was stocked. The milk was empty, the eggs &amp; sausage sitting in water im sure dripped from the lid, and just not well maintained.As a hotel employee, I probably notice things most people wouldn't. Just expect a certain standard I suppose. The staff I did meet were very friendly, and accomodating.  Also, the two person tub in my room was cracked completely across the bottom. Might be something you want to mention to your maintenance department. Other than that, a great experience. Thank youMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>When I walked into the hotel lobby, the gentleman that was working the front desk was lounging in a chair in front of the television?  I understand from the badly written "No Vacancies" sign that the hotel was full, however what about those of us that had reservations?Also, when I arrived to breakfast there was no attendant to make sure it was stocked. The milk was empty, the eggs &amp; sausage sitting in water im sure dripped from the lid, and just not well maintained.As a hotel employee, I probably notice things most people wouldn't. Just expect a certain standard I suppose. The staff I did meet were very friendly, and accomodating.  Also, the two person tub in my room was cracked completely across the bottom. Might be something you want to mention to your maintenance department. Other than that, a great experience. Thank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r132404682-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>132404682</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>Who gave this more than 2?</t>
+  </si>
+  <si>
+    <t>What a dump.  Poor location.  Bad AC.  Hair gel smell.  1990's TV.  I got walked in on by staff while in the bathroom.  The only thing missing are the bugs.  Will not make this mistake again.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r124493834-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>124493834</t>
+  </si>
+  <si>
+    <t>02/12/2012</t>
+  </si>
+  <si>
+    <t>Average!</t>
+  </si>
+  <si>
+    <t>Stayed here 4 days while in the Ft. Worth area.  We had just returned from a cruise out of New Orleans.  King room was okay.  Room was not vaccumned each day and I had to ask after three days to have the bottom sheet changed due to a small burn place in the sheet.  (We don't smoke and I was surprised that this sheet was still in service--probably needed to be sent to the raqg pile).  Request was honored concerning the changing of the sheet.  Main manager was there 2 days.  Ver pleasant and helpful young lady.  Most of the staff was pleasant.  Had to ask for yogurt each day, but it was always available.  Great price on the room.  Would probably stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Stayed here 4 days while in the Ft. Worth area.  We had just returned from a cruise out of New Orleans.  King room was okay.  Room was not vaccumned each day and I had to ask after three days to have the bottom sheet changed due to a small burn place in the sheet.  (We don't smoke and I was surprised that this sheet was still in service--probably needed to be sent to the raqg pile).  Request was honored concerning the changing of the sheet.  Main manager was there 2 days.  Ver pleasant and helpful young lady.  Most of the staff was pleasant.  Had to ask for yogurt each day, but it was always available.  Great price on the room.  Would probably stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r124197791-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>124197791</t>
+  </si>
+  <si>
+    <t>02/06/2012</t>
+  </si>
+  <si>
+    <t>Comfortable stop after long trip</t>
+  </si>
+  <si>
+    <t>After choosing a REALLY BAD place to stay in Fort Worth just a month before...we payed  close attention to reviews and chose the Baymont. Everything was clean &amp; best of all we felt comfortable &amp; safe. Breakfast was ok, not anything outstanding, except for the waffle station that made your waffle into the shape of Texas.  Good value &amp; SAFE!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r115964957-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>115964957</t>
+  </si>
+  <si>
+    <t>07/29/2011</t>
+  </si>
+  <si>
+    <t>Basic room at a reasonable price.</t>
+  </si>
+  <si>
+    <t>We stayed here for three nights at the beginning of June. It was crazy hot but the room was cool and inviting. There's nothing really special to report about the room but it was clean and everything worked like it should. We had a room with two queen beds and we were very comfortable. There's a good selection of cable channels, a refrigerator and microwave and good size table with chairs and a desk. I will add that the lighting was a little poor. They could stand to put brighter bulbs in the lamps, lighting fixtures and bathroom. 
+Our stay was pleasant enough. The hotel is in close proximity to restaurants and shopping. Getting off the freeway from those excursions back to the hotel can prove challenging though. Better use a GPS or know the side streets because the traffic is bumper to bumper at times. Whew!
+The staff was very friendly, knowledgeable and accommodating. The hotel offers a continental breakfast and is pet friendly. I would walk my dog around the property and off to the left of the pool there is some fenced off property with a view of some beautiful horses. I enjoyed watching them as I walked my dog.
+Internet access is available and FREE.  Housekeeping is good. All in all I wouldn't hesitate to stay here again. You're not going to get all the bells and whistles but it's a clean place to stay for...We stayed here for three nights at the beginning of June. It was crazy hot but the room was cool and inviting. There's nothing really special to report about the room but it was clean and everything worked like it should. We had a room with two queen beds and we were very comfortable. There's a good selection of cable channels, a refrigerator and microwave and good size table with chairs and a desk. I will add that the lighting was a little poor. They could stand to put brighter bulbs in the lamps, lighting fixtures and bathroom. Our stay was pleasant enough. The hotel is in close proximity to restaurants and shopping. Getting off the freeway from those excursions back to the hotel can prove challenging though. Better use a GPS or know the side streets because the traffic is bumper to bumper at times. Whew!The staff was very friendly, knowledgeable and accommodating. The hotel offers a continental breakfast and is pet friendly. I would walk my dog around the property and off to the left of the pool there is some fenced off property with a view of some beautiful horses. I enjoyed watching them as I walked my dog.Internet access is available and FREE.  Housekeeping is good. All in all I wouldn't hesitate to stay here again. You're not going to get all the bells and whistles but it's a clean place to stay for your basic needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>We stayed here for three nights at the beginning of June. It was crazy hot but the room was cool and inviting. There's nothing really special to report about the room but it was clean and everything worked like it should. We had a room with two queen beds and we were very comfortable. There's a good selection of cable channels, a refrigerator and microwave and good size table with chairs and a desk. I will add that the lighting was a little poor. They could stand to put brighter bulbs in the lamps, lighting fixtures and bathroom. 
+Our stay was pleasant enough. The hotel is in close proximity to restaurants and shopping. Getting off the freeway from those excursions back to the hotel can prove challenging though. Better use a GPS or know the side streets because the traffic is bumper to bumper at times. Whew!
+The staff was very friendly, knowledgeable and accommodating. The hotel offers a continental breakfast and is pet friendly. I would walk my dog around the property and off to the left of the pool there is some fenced off property with a view of some beautiful horses. I enjoyed watching them as I walked my dog.
+Internet access is available and FREE.  Housekeeping is good. All in all I wouldn't hesitate to stay here again. You're not going to get all the bells and whistles but it's a clean place to stay for...We stayed here for three nights at the beginning of June. It was crazy hot but the room was cool and inviting. There's nothing really special to report about the room but it was clean and everything worked like it should. We had a room with two queen beds and we were very comfortable. There's a good selection of cable channels, a refrigerator and microwave and good size table with chairs and a desk. I will add that the lighting was a little poor. They could stand to put brighter bulbs in the lamps, lighting fixtures and bathroom. Our stay was pleasant enough. The hotel is in close proximity to restaurants and shopping. Getting off the freeway from those excursions back to the hotel can prove challenging though. Better use a GPS or know the side streets because the traffic is bumper to bumper at times. Whew!The staff was very friendly, knowledgeable and accommodating. The hotel offers a continental breakfast and is pet friendly. I would walk my dog around the property and off to the left of the pool there is some fenced off property with a view of some beautiful horses. I enjoyed watching them as I walked my dog.Internet access is available and FREE.  Housekeeping is good. All in all I wouldn't hesitate to stay here again. You're not going to get all the bells and whistles but it's a clean place to stay for your basic needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r98785989-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>98785989</t>
+  </si>
+  <si>
+    <t>03/03/2011</t>
+  </si>
+  <si>
+    <t>Nice quiet place with friendly staff</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 nights and found the staff to be very friendly and anxious to please.  Karl, the girl at the front desk, and the taller lanky fellow who works the night shift were all very accommodating, even to the point of helping me get my booth across the street to the conference site by offering me a ride one cold morning.  Considering the other hotels in the area, this one is the best deal, and appears to be more recently renovated than the others, with exception to the Holiday Inn, which is twice the price.  The beds were good, the TV worked good, I was on the ground floor, near the parking lot and suspected it might be noisy, but it wasnt.  Beds were good and I slept good.  I liked the pillows too.  Bathroom was good, a few loose tiles at the wall base by the toilet, but so what?  The price was right and the quality more than I expected.  The staff really made you feel welcome, even offering cookies when you arrive!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 nights and found the staff to be very friendly and anxious to please.  Karl, the girl at the front desk, and the taller lanky fellow who works the night shift were all very accommodating, even to the point of helping me get my booth across the street to the conference site by offering me a ride one cold morning.  Considering the other hotels in the area, this one is the best deal, and appears to be more recently renovated than the others, with exception to the Holiday Inn, which is twice the price.  The beds were good, the TV worked good, I was on the ground floor, near the parking lot and suspected it might be noisy, but it wasnt.  Beds were good and I slept good.  I liked the pillows too.  Bathroom was good, a few loose tiles at the wall base by the toilet, but so what?  The price was right and the quality more than I expected.  The staff really made you feel welcome, even offering cookies when you arrive!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r93917903-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>93917903</t>
+  </si>
+  <si>
+    <t>01/20/2011</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>An excellent experience for the money.  Convenient to Interstate 35 and to 820 Loop.  Have tried several times to get connecting rooms in this area without sucess.  Karl guaranteed when I made the reservations they would be available, and he lived up to his word.  Brandy who checked us in was very efficient and friendly.  Even gave us  a courtesy call after we got into the room to be sure everything was ok.Rooms were clean.  Beds were comfortable.  Breakfast had a good selection.  We were towards the end of breakfast both days but food was replenished so we had a good choice.  It included waffles, eggs, biscuits and gravy as well as the usual continental style pastries.It was very convenient for us.   Front desk was very helpful.  I would certainly recommend them .MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>An excellent experience for the money.  Convenient to Interstate 35 and to 820 Loop.  Have tried several times to get connecting rooms in this area without sucess.  Karl guaranteed when I made the reservations they would be available, and he lived up to his word.  Brandy who checked us in was very efficient and friendly.  Even gave us  a courtesy call after we got into the room to be sure everything was ok.Rooms were clean.  Beds were comfortable.  Breakfast had a good selection.  We were towards the end of breakfast both days but food was replenished so we had a good choice.  It included waffles, eggs, biscuits and gravy as well as the usual continental style pastries.It was very convenient for us.   Front desk was very helpful.  I would certainly recommend them .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r16182724-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>16182724</t>
+  </si>
+  <si>
+    <t>05/18/2008</t>
+  </si>
+  <si>
+    <t>clean, friendly and attractive</t>
+  </si>
+  <si>
+    <t>This hotel was easy to reach from the interstate, staff was friendly, rooms and lobby were sparkling clean. In fact, the lobby was freshly mopped and smelled very fresh and sanitary while I was checking out.  I did not have the free breakfast, but ate at Cracker Barrel which is right next door instead. But from what I saw, the breakfast looked attractive and ample. Even though it was a pet-friendly hotel, I did not notice any "pet" odor.  I couldn't have been happier with this hotel. The rate was very reasonable also.</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r6534544-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>6534544</t>
+  </si>
+  <si>
+    <t>12/31/2006</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>no one there knows what is going on i will never stay at this hotel again or have any thing positive to say about hotel it should have stayed a hampton inn with same owners it could do with out the knew ones awful experience very rude staff from the bottom to the top</t>
+  </si>
+  <si>
+    <t>December 2006</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1317,2191 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>155</v>
+      </c>
+      <c r="O19" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J21" t="s">
+        <v>163</v>
+      </c>
+      <c r="K21" t="s">
+        <v>164</v>
+      </c>
+      <c r="L21" t="s">
+        <v>165</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>166</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" t="s">
+        <v>172</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>166</v>
+      </c>
+      <c r="O22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>179</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>182</v>
+      </c>
+      <c r="J24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K24" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" t="s">
+        <v>185</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>189</v>
+      </c>
+      <c r="J25" t="s">
+        <v>190</v>
+      </c>
+      <c r="K25" t="s">
+        <v>191</v>
+      </c>
+      <c r="L25" t="s">
+        <v>192</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>193</v>
+      </c>
+      <c r="O25" t="s">
+        <v>84</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>195</v>
+      </c>
+      <c r="J26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" t="s">
+        <v>197</v>
+      </c>
+      <c r="L26" t="s">
+        <v>198</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>199</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>201</v>
+      </c>
+      <c r="J27" t="s">
+        <v>202</v>
+      </c>
+      <c r="K27" t="s">
+        <v>203</v>
+      </c>
+      <c r="L27" t="s">
+        <v>204</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>205</v>
+      </c>
+      <c r="O27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" t="s">
+        <v>208</v>
+      </c>
+      <c r="K28" t="s">
+        <v>209</v>
+      </c>
+      <c r="L28" t="s">
+        <v>210</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>211</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>214</v>
+      </c>
+      <c r="J29" t="s">
+        <v>215</v>
+      </c>
+      <c r="K29" t="s">
+        <v>216</v>
+      </c>
+      <c r="L29" t="s">
+        <v>217</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>218</v>
+      </c>
+      <c r="O29" t="s">
+        <v>84</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" t="s">
+        <v>223</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>224</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J31" t="s">
+        <v>228</v>
+      </c>
+      <c r="K31" t="s">
+        <v>229</v>
+      </c>
+      <c r="L31" t="s">
+        <v>230</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>232</v>
+      </c>
+      <c r="J32" t="s">
+        <v>233</v>
+      </c>
+      <c r="K32" t="s">
+        <v>234</v>
+      </c>
+      <c r="L32" t="s">
+        <v>235</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>236</v>
+      </c>
+      <c r="O32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>239</v>
+      </c>
+      <c r="J33" t="s">
+        <v>240</v>
+      </c>
+      <c r="K33" t="s">
+        <v>241</v>
+      </c>
+      <c r="L33" t="s">
+        <v>242</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>243</v>
+      </c>
+      <c r="O33" t="s">
+        <v>84</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>245</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" t="s">
+        <v>247</v>
+      </c>
+      <c r="K34" t="s">
+        <v>248</v>
+      </c>
+      <c r="L34" t="s">
+        <v>249</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>250</v>
+      </c>
+      <c r="O34" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>252</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>253</v>
+      </c>
+      <c r="J35" t="s">
+        <v>254</v>
+      </c>
+      <c r="K35" t="s">
+        <v>255</v>
+      </c>
+      <c r="L35" t="s">
+        <v>256</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>257</v>
+      </c>
+      <c r="O35" t="s">
+        <v>258</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>260</v>
+      </c>
+      <c r="J36" t="s">
+        <v>261</v>
+      </c>
+      <c r="K36" t="s">
+        <v>262</v>
+      </c>
+      <c r="L36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>264</v>
+      </c>
+      <c r="O36" t="s">
+        <v>84</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>263</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_629.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_629.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Kgjackson23</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Megan C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r492326763-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Regina A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r489377489-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>PirateRg72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r411949561-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>ShuffWaco_Texas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r396250055-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>totallyjoshed</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r394620601-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>ivanlopezhur</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r379803769-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -291,6 +312,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>nancy k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r367872431-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -309,6 +333,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>chorleyk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r358959080-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -330,6 +357,9 @@
     <t>We arrived at 12.30 nearly 3 hours before the official check in time and were given a room straight away. This was a bonus as we had to meet friends in Fort Worth early evening. The guy on the desk ( Suraj) was very helpful and pleasant he asked us if we needed anything just to let him know and he would do his best to help out. The room was very nice and despite being close to HI 35 there was no traffic noise whatsoever. The breakfast was more than ample ( if you want to pay for it go to Cracker Barrel 25 yards away) with sausage, egg, buscuits, gravy, a choice of cereal, waffles, fruit plus lots of other stuff. The dining area was always kept clean and tidy no matter how many people were having breakfast. Its a 10 minute car ride to the Fort Worth Stockyards ($15 by cab) and is probably half the price of hotels down there. We had some trouble with the TV one night ( it just went off without any warning)so we called reception. Within 5 minutes a guy came up and fixed it. He explained that they were improving the rooms and the cable to the tv sometimes comes out as its a little short but they were working on the problem. Although it was spring break and there was a party of young girls checked in for the...We arrived at 12.30 nearly 3 hours before the official check in time and were given a room straight away. This was a bonus as we had to meet friends in Fort Worth early evening. The guy on the desk ( Suraj) was very helpful and pleasant he asked us if we needed anything just to let him know and he would do his best to help out. The room was very nice and despite being close to HI 35 there was no traffic noise whatsoever. The breakfast was more than ample ( if you want to pay for it go to Cracker Barrel 25 yards away) with sausage, egg, buscuits, gravy, a choice of cereal, waffles, fruit plus lots of other stuff. The dining area was always kept clean and tidy no matter how many people were having breakfast. Its a 10 minute car ride to the Fort Worth Stockyards ($15 by cab) and is probably half the price of hotels down there. We had some trouble with the TV one night ( it just went off without any warning)so we called reception. Within 5 minutes a guy came up and fixed it. He explained that they were improving the rooms and the cable to the tv sometimes comes out as its a little short but they were working on the problem. Although it was spring break and there was a party of young girls checked in for the weekend we hear no noise. We asked for a late checkout as our flight back to the UK wasn't until early evening and again it was "no problem." and there was no extra charges. We needed to check in on line for our flight and the receptionist Suraj Patel did that for us. He even printed out our boarding passes!!! The staff here go over and above what is expected of them and I can find no faults with anything at the hotel. It was a bargain for the price we paid. Next time we're in Fort Worth this would be my hotel of choice. Excellent value for money.More</t>
   </si>
   <si>
+    <t>mugmarine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r329759337-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -348,6 +378,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Jame H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r323678477-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -363,6 +396,9 @@
     <t xml:space="preserve">Hotel is clean and well taken care of. Staff was helpful and knowledgeable. The area is under construction so getting to the hotel is a little harder than it should be, just have to pay a little more attention when getting to the hotel. </t>
   </si>
   <si>
+    <t>cessy31</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r308633775-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -384,6 +420,9 @@
     <t>Internet was terrible unless you are on the 1st floor or if you want to sit in the lobby the entire you are at hotel.  I had to walk down stairs every time I wanted to do something on my I-pad or tablet . The pool was very clean however it looked somewhat rundown. Fort Worth is doing a lot of road construction around this area so if you miss your exit you better have a GPS with you to find your way back to this hotel. The front desk people are ok.  I went down stairs 2 times two talk to them about things and each time they skipped over me and would ask the men behind me and beside me if they needed help. I quickly fixed that both times. I really think they do not care for women at that hotel.More</t>
   </si>
   <si>
+    <t>JennandJeff A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r296804295-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -405,6 +444,9 @@
     <t>My room was a non smoking room well it was suppose to be and the Jacuzzi tub had burns all over the tub and you could tell it had been previously smoked in. I had booked 2 choice reward nights one for Friday and on for Saturday and Saturday came along and guest what I had to check out because both my nights had been booked on Friday night and the General Manager Mr. Patel could not be bothered with emergency's on the weekend so I had to wait until Tuesday and then he would not grant me my 8,000 points back. VERY VERY WRONG!!!!!!!! So I paid for 2 rooms  and only stayed in one and no one cared. The revenue was more important than there hotel guest at least to this manager. You treat people the way you would like to be treated. Also the pool has been closed for over 2 weeks because they failed the inspection, that was also a HUGE let down.More</t>
   </si>
   <si>
+    <t>Dallis h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r290712843-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -420,6 +462,9 @@
     <t>On trip with sports team, wanted 2 rooms and the rooms were saturated in smoke. The kids went up to the room and got stuck on the elevator. I told the host that I have 2 kids with ahsma! he told us that's all they had. , and he can spray it. I told him that we cant stay here so just give us our refund. He says he couldn't, and we didn't even drop any luggage in the rooms.</t>
   </si>
   <si>
+    <t>sbjay3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r284266068-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -438,6 +483,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Michael F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r279357581-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -453,6 +501,9 @@
     <t>This is an older hotel just on the edge of Downtown. The room was quite and comfortable. The hotel has an outdoor pool that is ok. Cracker Barrel is just in front of the building which was very nice to visit and eat at since we don't have one near my current home.</t>
   </si>
   <si>
+    <t>Abby121314</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r278833532-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -468,6 +519,9 @@
     <t>It took 30 minutes to check in even though we prepaid.  The room was not clean.  Many of the items on the breakfast buffet were empty.  We informed the desk attendant with no action from him.  The trash can in the breakfast area was overflowing.  The desk person walked past it several times but did nothing.  There was not any other attendant at breakfast.  We requested a wake up call that did not come.</t>
   </si>
   <si>
+    <t>Jemsheart</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r266656738-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -486,6 +540,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>cdhb6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r225067319-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -501,6 +558,9 @@
     <t>Recently stayed here for 2 days waiting on truck to be repaired at nearby shop. Room was big and clean. Plenty of fresh towels. TV channel selection could be better! Pool needed a good cleaning but was still clean enough to swim. Front desk guy was great our entire stay! Would definitely stay here again if needed.</t>
   </si>
   <si>
+    <t>Jo Lynn M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r213660408-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -522,6 +582,9 @@
     <t>We have stayed here almost one weekend a month for the last four years.  It was an excellent place, well kept, good location, great staff, etc.  However, this weekend has been a turning point.  The room smelled like strong odor of urine.  We asked to change rooms.  They told us we could right after lunch.  We went to eat, came back, and the new attendant said they had no openings and were just sorry.  :(  We tried to get ice; both machines were broken down and told, ....sorry.  Our toilet stopped up.  Twice we called for a plunger.  No response; then, the attendant said, you're not supposed to flush toilet paper at this hotel anymore.  Some kind of problem, not sure what.  Went swimming last night.  At least 15 people that were not staying here were in the pool.  They said it was okay as they knew someone that worked here.   So, no swimming, too crowded and had to step over their beer bottles around the pool.  This has been a great place for so long, but now, we will have to take our FTW stays elsewhere.  It's sad to see it go down the way it has.More</t>
   </si>
   <si>
+    <t>JRIZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r209535714-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -540,6 +603,9 @@
     <t>Can't recommend this hotel to others.  While the property itself looks OK, there were a few things that really bothered me.  The main thing was the position of my room to the back parking lot which is lit very brightly.  The light shined through the cracks in the curtains directly onto my face in the bed closest to the window.  There was no escaping this and the hotel should really consider installing shutters or something that completely covers the windows in these rooms.  I also saw 2 of the largest cockroaches I've ever seen in this hotel.  One was on the wall in the hallway outside my room and the other was IN my room.  The shower curtain wasn't affixed well, so the curtain rod and curtain actually fell onto my son while he was taking a shower.  Granted, there are worse hotels out there and it's hard to find something pet friendly, but I would not stay here again.More</t>
   </si>
   <si>
+    <t>ct782</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r207530778-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -561,6 +627,9 @@
     <t>the hotel is clean and was in a good location for us.  My problem was the mattress was TERRIBLE! It sloped to center and I have problems with my back. I awoke at 2am with terrible pain which forced me to stay on the outer 5" where the metal support is located.   In the morning I spoke with the front desk about my problem. I was told they do not have extra mattresses. I asked if they would flip it or trade it with one from  a different room.  NOTHING was done.      Also we asked for ketchup and mustard for breakfast. They don't carry that and WHY would I want it.More</t>
   </si>
   <si>
+    <t>youkillemwechillem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r202128321-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -582,6 +651,9 @@
     <t>We stayed here for two nights while we visited The Stockyards and went to the rodeo.Firstly, we are grateful to the desk staff who picked up our video camera after i left it on the table in reception when we got into our taxi. We got to the rodeo and realised that we'd left our camera in a public reception area back at the hotel. We called them and were very pleased that a member of staff had spotted it and had it safe behind the reception desk! Phew! Thank you.We'd certainly stay here again if we were in Fort Worth.It is within 10 minutes driving of The Stockyards, it's clean, and the staff are efficient.There is a Cracker Barrel right next door if you want to eat and not drive. It's literally 2 minutes walk.All in all, rooms are ok, breakfast was ok, and the location is very handy.More</t>
   </si>
   <si>
+    <t>LCWorkPlayTrav</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r194196348-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -600,6 +672,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Rick G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r182768297-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -618,6 +693,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>ontheroad8o734</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r156587430-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -636,6 +714,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>country_kris</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r150143192-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -657,6 +738,9 @@
     <t>When I walked into the hotel lobby, the gentleman that was working the front desk was lounging in a chair in front of the television?  I understand from the badly written "No Vacancies" sign that the hotel was full, however what about those of us that had reservations?Also, when I arrived to breakfast there was no attendant to make sure it was stocked. The milk was empty, the eggs &amp; sausage sitting in water im sure dripped from the lid, and just not well maintained.As a hotel employee, I probably notice things most people wouldn't. Just expect a certain standard I suppose. The staff I did meet were very friendly, and accomodating.  Also, the two person tub in my room was cracked completely across the bottom. Might be something you want to mention to your maintenance department. Other than that, a great experience. Thank youMore</t>
   </si>
   <si>
+    <t>badman525</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r132404682-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -675,6 +759,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>schoolmarm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r124493834-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -696,6 +783,9 @@
     <t>Stayed here 4 days while in the Ft. Worth area.  We had just returned from a cruise out of New Orleans.  King room was okay.  Room was not vaccumned each day and I had to ask after three days to have the bottom sheet changed due to a small burn place in the sheet.  (We don't smoke and I was surprised that this sheet was still in service--probably needed to be sent to the raqg pile).  Request was honored concerning the changing of the sheet.  Main manager was there 2 days.  Ver pleasant and helpful young lady.  Most of the staff was pleasant.  Had to ask for yogurt each day, but it was always available.  Great price on the room.  Would probably stay there again!More</t>
   </si>
   <si>
+    <t>Dawn W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r124197791-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -709,6 +799,9 @@
   </si>
   <si>
     <t>After choosing a REALLY BAD place to stay in Fort Worth just a month before...we payed  close attention to reviews and chose the Baymont. Everything was clean &amp; best of all we felt comfortable &amp; safe. Breakfast was ok, not anything outstanding, except for the waffle station that made your waffle into the shape of Texas.  Good value &amp; SAFE!!</t>
+  </si>
+  <si>
+    <t>clark1986</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r115964957-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -738,6 +831,9 @@
 Internet access is available and FREE.  Housekeeping is good. All in all I wouldn't hesitate to stay here again. You're not going to get all the bells and whistles but it's a clean place to stay for...We stayed here for three nights at the beginning of June. It was crazy hot but the room was cool and inviting. There's nothing really special to report about the room but it was clean and everything worked like it should. We had a room with two queen beds and we were very comfortable. There's a good selection of cable channels, a refrigerator and microwave and good size table with chairs and a desk. I will add that the lighting was a little poor. They could stand to put brighter bulbs in the lamps, lighting fixtures and bathroom. Our stay was pleasant enough. The hotel is in close proximity to restaurants and shopping. Getting off the freeway from those excursions back to the hotel can prove challenging though. Better use a GPS or know the side streets because the traffic is bumper to bumper at times. Whew!The staff was very friendly, knowledgeable and accommodating. The hotel offers a continental breakfast and is pet friendly. I would walk my dog around the property and off to the left of the pool there is some fenced off property with a view of some beautiful horses. I enjoyed watching them as I walked my dog.Internet access is available and FREE.  Housekeeping is good. All in all I wouldn't hesitate to stay here again. You're not going to get all the bells and whistles but it's a clean place to stay for your basic needs.More</t>
   </si>
   <si>
+    <t>FLCarlo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r98785989-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -759,6 +855,9 @@
     <t>I stayed here for 3 nights and found the staff to be very friendly and anxious to please.  Karl, the girl at the front desk, and the taller lanky fellow who works the night shift were all very accommodating, even to the point of helping me get my booth across the street to the conference site by offering me a ride one cold morning.  Considering the other hotels in the area, this one is the best deal, and appears to be more recently renovated than the others, with exception to the Holiday Inn, which is twice the price.  The beds were good, the TV worked good, I was on the ground floor, near the parking lot and suspected it might be noisy, but it wasnt.  Beds were good and I slept good.  I liked the pillows too.  Bathroom was good, a few loose tiles at the wall base by the toilet, but so what?  The price was right and the quality more than I expected.  The staff really made you feel welcome, even offering cookies when you arrive!More</t>
   </si>
   <si>
+    <t>ganny3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r93917903-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -780,6 +879,9 @@
     <t>An excellent experience for the money.  Convenient to Interstate 35 and to 820 Loop.  Have tried several times to get connecting rooms in this area without sucess.  Karl guaranteed when I made the reservations they would be available, and he lived up to his word.  Brandy who checked us in was very efficient and friendly.  Even gave us  a courtesy call after we got into the room to be sure everything was ok.Rooms were clean.  Beds were comfortable.  Breakfast had a good selection.  We were towards the end of breakfast both days but food was replenished so we had a good choice.  It included waffles, eggs, biscuits and gravy as well as the usual continental style pastries.It was very convenient for us.   Front desk was very helpful.  I would certainly recommend them .More</t>
   </si>
   <si>
+    <t>jcmudpuppy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r16182724-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -799,6 +901,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>mosbysfamily</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r6534544-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -1321,43 +1426,47 @@
       <c r="A2" t="n">
         <v>32911</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>174290</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1371,50 +1480,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>32911</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>36167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1428,50 +1541,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>32911</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>70661</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1485,50 +1602,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>32911</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>174291</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1542,50 +1663,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>32911</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>174292</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1599,50 +1724,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>32911</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>174293</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1656,50 +1785,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>32911</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>174294</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1713,50 +1846,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>32911</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>174295</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -1776,50 +1913,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>32911</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>174296</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1839,50 +1980,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>32911</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>174297</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1896,50 +2041,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>32911</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>174298</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1953,50 +2102,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>32911</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>174299</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2014,50 +2167,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>32911</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>174300</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -2075,50 +2232,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>32911</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>174301</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2136,50 +2297,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>32911</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>174302</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2199,50 +2364,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>32911</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C17" t="s">
+        <v>155</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2262,50 +2431,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>32911</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>174303</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
@@ -2325,50 +2498,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>32911</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>174304</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="J19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2382,41 +2559,45 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>32911</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>174305</v>
+      </c>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
@@ -2445,50 +2626,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>32911</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>174306</v>
+      </c>
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="J21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="K21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -2512,50 +2697,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>32911</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>73020</v>
+      </c>
+      <c r="C22" t="s">
+        <v>188</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="J22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="O22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -2579,50 +2768,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>32911</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>174307</v>
+      </c>
+      <c r="C23" t="s">
+        <v>195</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="J23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="K23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -2646,50 +2839,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>32911</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>174308</v>
+      </c>
+      <c r="C24" t="s">
+        <v>203</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="J24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="K24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -2713,50 +2910,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>32911</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>174309</v>
+      </c>
+      <c r="C25" t="s">
+        <v>211</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="J25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="K25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -2770,50 +2971,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>32911</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>5193</v>
+      </c>
+      <c r="C26" t="s">
+        <v>218</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="J26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -2837,50 +3042,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>32911</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>174310</v>
+      </c>
+      <c r="C27" t="s">
+        <v>225</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="J27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="O27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -2904,50 +3113,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>32911</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>174311</v>
+      </c>
+      <c r="C28" t="s">
+        <v>232</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="J28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="K28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -2971,50 +3184,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>32911</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>36043</v>
+      </c>
+      <c r="C29" t="s">
+        <v>240</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="J29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="K29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="L29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="O29" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -3038,50 +3255,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>32911</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>89984</v>
+      </c>
+      <c r="C30" t="s">
+        <v>247</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="J30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="K30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3105,41 +3326,45 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>32911</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>7662</v>
+      </c>
+      <c r="C31" t="s">
+        <v>255</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="J31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="K31" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
@@ -3168,50 +3393,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>32911</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>174312</v>
+      </c>
+      <c r="C32" t="s">
+        <v>261</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="J32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="K32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="O32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3231,50 +3460,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>32911</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>174313</v>
+      </c>
+      <c r="C33" t="s">
+        <v>269</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="J33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="K33" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="L33" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="O33" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3298,50 +3531,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>32911</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>174314</v>
+      </c>
+      <c r="C34" t="s">
+        <v>277</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="J34" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="K34" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="L34" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="O34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3365,50 +3602,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>32911</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>174315</v>
+      </c>
+      <c r="C35" t="s">
+        <v>285</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="J35" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="K35" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="L35" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="O35" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3432,50 +3673,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>32911</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>174316</v>
+      </c>
+      <c r="C36" t="s">
+        <v>293</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="J36" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="K36" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="L36" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="O36" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -3499,7 +3744,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_629.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_629.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="414">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,102 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Kgjackson23</t>
-  </si>
-  <si>
-    <t>06/16/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r595258328-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>224284</t>
+  </si>
+  <si>
+    <t>595258328</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!!!</t>
+  </si>
+  <si>
+    <t>This was the worst hotel we have ever stayed in! It started with the pillows. We had 4 10x10” pillows on a king size bed. Called to get extra and were told they didn’t have any. When you layed your head on them 2 of them were wet! The bed felt as if there was something under the mattress. When my husband lifted it up he found a syringe with the needle exposed! Needless to say, removing it did nothing for the ‘quality’ of the bed. Most miserable nights sleep I’ve had in a long time. DO NOT STAY HERE!!!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r591991332-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>591991332</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Hair in bathroom! Black mold!</t>
+  </si>
+  <si>
+    <t>We stayed here one night. There was hair all over the bathroom floor! There was black mold at the front outside corner of the bathtub! The bed spread had a burn spot, and stains on it! The drain plug was missing. The ironing board was nasty dirty! There was no battery cover to the TV remote. The lamp at the far right corner did not work. The heating element for the gravy, sausage, eggs, had a short. The gravy was cold. The cream cheese was old, and so bad that I had to throw away my bagels! They had no bananas. This was a Hampton inn before, but it is obvious the owners don’t care. I told the man at the front desk about the hairs in the bathroom. I did not even get a apology! I told the man at the front desk about the cream cheese. I gave the maid a tour of the room. This is a nasty hotel! I can’t recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We stayed here one night. There was hair all over the bathroom floor! There was black mold at the front outside corner of the bathtub! The bed spread had a burn spot, and stains on it! The drain plug was missing. The ironing board was nasty dirty! There was no battery cover to the TV remote. The lamp at the far right corner did not work. The heating element for the gravy, sausage, eggs, had a short. The gravy was cold. The cream cheese was old, and so bad that I had to throw away my bagels! They had no bananas. This was a Hampton inn before, but it is obvious the owners don’t care. I told the man at the front desk about the hairs in the bathroom. I did not even get a apology! I told the man at the front desk about the cream cheese. I gave the maid a tour of the room. This is a nasty hotel! I can’t recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r587048159-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>587048159</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>No knowing Fort Worth I chose this hotel because it was close to Billy Bobs that's what they said anyway .it turned out to be very well located and not that far away 10 mins drive so all good .good breakfast, clean room ,wifi,parking what more do you need. All up good value ,well priced hotel.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r569038460-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>569038460</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>It Was Alright</t>
+  </si>
+  <si>
+    <t>This location was close to the meeting I was attending the following morning. Nice people at the front desk when I checked in. The lobby was really nice and clean. It looks as though they have been remodeling. My room was nice also. It looks as it was also recently remodeled. There was some questionable construction that I will attach in the pictures. The breakfast was the typical Choice Hotel brand food. I would probably stay at this location again. It is right off of Interstate 35 and next door to a Cracker Barrel Store.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r512868820-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>224284</t>
-  </si>
-  <si>
     <t>512868820</t>
   </si>
   <si>
@@ -183,9 +264,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Megan C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r492326763-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -204,12 +282,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Regina A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r489377489-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -225,10 +297,46 @@
     <t xml:space="preserve">I stayed here during a visit. It was clean and the people were nice enough. They had breakfast. Choices of cereal oatmeal scrambled eggs biscuits and gravy pan sausage milk juice and coffee. They also had some pastry items as well as waffles. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>PirateRg72</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r452157723-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>452157723</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>Not people friendly.</t>
+  </si>
+  <si>
+    <t>The manager and staff were not friendly. They were cold and did not understand me. The manager spoke better English than the other employees but was not willing to accommodate me. I arrived in the breakfast area early. I was the only one there. I asked the desk clerk to change the channel on the tv. I told him to change it to the local news if he didn't like the Fox news. He said that it had to remain on CNN. I told him it was on espn last night.The bed spread was horrid had burn holes in it.The breakfast was ok except for the eggs. They were dry, cold, and rubbery.I will not stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>The manager and staff were not friendly. They were cold and did not understand me. The manager spoke better English than the other employees but was not willing to accommodate me. I arrived in the breakfast area early. I was the only one there. I asked the desk clerk to change the channel on the tv. I told him to change it to the local news if he didn't like the Fox news. He said that it had to remain on CNN. I told him it was on espn last night.The bed spread was horrid had burn holes in it.The breakfast was ok except for the eggs. They were dry, cold, and rubbery.I will not stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r416194858-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>416194858</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>Good deal and close to stockyards. Great price point for the basic room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean basic rooms. Front desk friendly. Breakfast included is a plus. Would stay there again. About 3 miles from stockyard area. Easy to get to and easy access to interstate. Excellent deal. Would recommend </t>
+  </si>
+  <si>
+    <t>September 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r411949561-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -249,9 +357,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>ShuffWaco_Texas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r396250055-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -270,9 +375,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>totallyjoshed</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r394620601-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -288,10 +390,37 @@
     <t>We stayed there this past weekend and it was just lovely. The bed was perfect the staff very accommodating and the hotel was quiet. The pool looked inviting though we never had the chance to use it. The breakfast is amazing, and the price overall was outstanding. I'd stay here again in a heartbeat!  Marriott has,serious competition!</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>ivanlopezhur</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r385072460-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>385072460</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Very Friendly</t>
+  </si>
+  <si>
+    <t>The guys at the front desk were very friendly and professional. The room was clean. Everything was good. Elevator was slow running. Breakfast was alright. We stay here 3-4 times a year, always go back here, easy access.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r379804047-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>379804047</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Worst hotel</t>
+  </si>
+  <si>
+    <t>Found a spider in my bed and they refused to change it.Had a non smoker room, and it smelled A LOT.Carpet had mysterious stains and elevator made weird noises. Will NEVER stay her again, big mistake.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r379803769-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -300,21 +429,12 @@
     <t>379803769</t>
   </si>
   <si>
-    <t>06/04/2016</t>
-  </si>
-  <si>
     <t>Terrible service.   It is like hell.</t>
   </si>
   <si>
     <t>Please, dont stay here.  The customer service is terribleeeee!!!   The room has spiders and the manager didnt want to give us another room after we complained.  The elevator is scary like Disneyland Tower of Terror.  The place is dirty, too.Quality????  Not even in the third world.Please, bring your family here only if they want to visit a haunted house.</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
-    <t>nancy k</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r367872431-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -333,9 +453,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>chorleyk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r358959080-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -357,7 +474,43 @@
     <t>We arrived at 12.30 nearly 3 hours before the official check in time and were given a room straight away. This was a bonus as we had to meet friends in Fort Worth early evening. The guy on the desk ( Suraj) was very helpful and pleasant he asked us if we needed anything just to let him know and he would do his best to help out. The room was very nice and despite being close to HI 35 there was no traffic noise whatsoever. The breakfast was more than ample ( if you want to pay for it go to Cracker Barrel 25 yards away) with sausage, egg, buscuits, gravy, a choice of cereal, waffles, fruit plus lots of other stuff. The dining area was always kept clean and tidy no matter how many people were having breakfast. Its a 10 minute car ride to the Fort Worth Stockyards ($15 by cab) and is probably half the price of hotels down there. We had some trouble with the TV one night ( it just went off without any warning)so we called reception. Within 5 minutes a guy came up and fixed it. He explained that they were improving the rooms and the cable to the tv sometimes comes out as its a little short but they were working on the problem. Although it was spring break and there was a party of young girls checked in for the...We arrived at 12.30 nearly 3 hours before the official check in time and were given a room straight away. This was a bonus as we had to meet friends in Fort Worth early evening. The guy on the desk ( Suraj) was very helpful and pleasant he asked us if we needed anything just to let him know and he would do his best to help out. The room was very nice and despite being close to HI 35 there was no traffic noise whatsoever. The breakfast was more than ample ( if you want to pay for it go to Cracker Barrel 25 yards away) with sausage, egg, buscuits, gravy, a choice of cereal, waffles, fruit plus lots of other stuff. The dining area was always kept clean and tidy no matter how many people were having breakfast. Its a 10 minute car ride to the Fort Worth Stockyards ($15 by cab) and is probably half the price of hotels down there. We had some trouble with the TV one night ( it just went off without any warning)so we called reception. Within 5 minutes a guy came up and fixed it. He explained that they were improving the rooms and the cable to the tv sometimes comes out as its a little short but they were working on the problem. Although it was spring break and there was a party of young girls checked in for the weekend we hear no noise. We asked for a late checkout as our flight back to the UK wasn't until early evening and again it was "no problem." and there was no extra charges. We needed to check in on line for our flight and the receptionist Suraj Patel did that for us. He even printed out our boarding passes!!! The staff here go over and above what is expected of them and I can find no faults with anything at the hotel. It was a bargain for the price we paid. Next time we're in Fort Worth this would be my hotel of choice. Excellent value for money.More</t>
   </si>
   <si>
-    <t>mugmarine</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r346626568-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>346626568</t>
+  </si>
+  <si>
+    <t>02/10/2016</t>
+  </si>
+  <si>
+    <t>Rude staff, dirty room</t>
+  </si>
+  <si>
+    <t>Hair in bed on arrival, staff wouldn't come change sheets. Nothing else to say, what hotel does that? The guys at the front desk actually said "I don't change sheets and the housekeeping staff are gone for the night". This was around 6:30 pm.Plenty of other hotels to choose from in the area that are the same price.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r343176947-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>343176947</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>Cheap hotel</t>
+  </si>
+  <si>
+    <t>You are only really paying for a bed when staying here and not much else. We luckily arrived late and left extremely early so our room served a purpose, however, I would not recommend staying here for more than necessary. There was no food around except Denni's and their vending machines downstairs so come prepared. Our room was next to the elevator so it was very loud and also very dark with no ceiling lights only dim lamps next to the bed. The bathrooms were clean which was fantastic. Do not expect good wifi - it took us a long time to connect and once we were the connection was very poor and continued to drop out.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>You are only really paying for a bed when staying here and not much else. We luckily arrived late and left extremely early so our room served a purpose, however, I would not recommend staying here for more than necessary. There was no food around except Denni's and their vending machines downstairs so come prepared. Our room was next to the elevator so it was very loud and also very dark with no ceiling lights only dim lamps next to the bed. The bathrooms were clean which was fantastic. Do not expect good wifi - it took us a long time to connect and once we were the connection was very poor and continued to drop out.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r329759337-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -369,18 +522,12 @@
     <t>11/29/2015</t>
   </si>
   <si>
-    <t>Cheap hotel</t>
-  </si>
-  <si>
     <t>It was clean and cheap. Thats about it. Noisy air conditioner that would raise the dead! Vent fan in bathroom that was extremely noisy too. We had to change rooms for a bad toilet . Other than that it was clean room. Cheap and thats about it. Spend a little more money.</t>
   </si>
   <si>
     <t>November 2015</t>
   </si>
   <si>
-    <t>Jame H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r323678477-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -396,9 +543,6 @@
     <t xml:space="preserve">Hotel is clean and well taken care of. Staff was helpful and knowledgeable. The area is under construction so getting to the hotel is a little harder than it should be, just have to pay a little more attention when getting to the hotel. </t>
   </si>
   <si>
-    <t>cessy31</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r308633775-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -420,7 +564,40 @@
     <t>Internet was terrible unless you are on the 1st floor or if you want to sit in the lobby the entire you are at hotel.  I had to walk down stairs every time I wanted to do something on my I-pad or tablet . The pool was very clean however it looked somewhat rundown. Fort Worth is doing a lot of road construction around this area so if you miss your exit you better have a GPS with you to find your way back to this hotel. The front desk people are ok.  I went down stairs 2 times two talk to them about things and each time they skipped over me and would ask the men behind me and beside me if they needed help. I quickly fixed that both times. I really think they do not care for women at that hotel.More</t>
   </si>
   <si>
-    <t>JennandJeff A</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r308372254-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>308372254</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>Road Construction!!  Hotel Needs Some Attention, but OK</t>
+  </si>
+  <si>
+    <t>We stayed here on a weekend, 1 night.  We did not experience the problems of other reviewers, but we did have some issues.  The desk clerk and check in was OK, howeveer when we got to our room there was a hole in the ceiling and water dripping into a waste can.  Obviously, housekeeping should have reported this.  We were moved to the room next door and it also had a wet spot on the ceiling in line with the other room.  The room was safe and clean, so we reported the same issue and had not further problems.  Getting on and off the interstate is a challenge.  The on/off ramps are difficult to manuever, and your GPS is useless.Back to the room...the bed was comfortable and the room was ok.  Breakfast was typical for all Quality Inns. There has been some remodeling but some of it is sloppy.  I would check arund but if had to would stay again.  Just very incovenient access.  The morning clerk seemed to really care much about helping guest.  Night clerk was good.  Elevator needs some maintenance....stops at the floors are rough and erratic, ID plates missing from inside elevator panel.  Guess which is open/close!  I gave this an average rating beccause it could be a good place with the right attention.  Wifi did not work.  Parking lot area needed a good cleaning.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here on a weekend, 1 night.  We did not experience the problems of other reviewers, but we did have some issues.  The desk clerk and check in was OK, howeveer when we got to our room there was a hole in the ceiling and water dripping into a waste can.  Obviously, housekeeping should have reported this.  We were moved to the room next door and it also had a wet spot on the ceiling in line with the other room.  The room was safe and clean, so we reported the same issue and had not further problems.  Getting on and off the interstate is a challenge.  The on/off ramps are difficult to manuever, and your GPS is useless.Back to the room...the bed was comfortable and the room was ok.  Breakfast was typical for all Quality Inns. There has been some remodeling but some of it is sloppy.  I would check arund but if had to would stay again.  Just very incovenient access.  The morning clerk seemed to really care much about helping guest.  Night clerk was good.  Elevator needs some maintenance....stops at the floors are rough and erratic, ID plates missing from inside elevator panel.  Guess which is open/close!  I gave this an average rating beccause it could be a good place with the right attention.  Wifi did not work.  Parking lot area needed a good cleaning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r300663811-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>300663811</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>Booked &amp; Paid on Hotels.com and the hotel charged my card as well upon check in at the property</t>
+  </si>
+  <si>
+    <t>Typically book all reservations on Hotels.com where I prepay for the room and generally just swipe the card at check in for incidentals. This property however charged my card after Hotels.com had already charged. The hotel and Hotels.com are both pointing the finger at the other yet neither is steps refund the double billing. I will not be booking through Hotels.com in the future nor will I ever stay at any Choice Hotels property ever again.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r296804295-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -444,9 +621,6 @@
     <t>My room was a non smoking room well it was suppose to be and the Jacuzzi tub had burns all over the tub and you could tell it had been previously smoked in. I had booked 2 choice reward nights one for Friday and on for Saturday and Saturday came along and guest what I had to check out because both my nights had been booked on Friday night and the General Manager Mr. Patel could not be bothered with emergency's on the weekend so I had to wait until Tuesday and then he would not grant me my 8,000 points back. VERY VERY WRONG!!!!!!!! So I paid for 2 rooms  and only stayed in one and no one cared. The revenue was more important than there hotel guest at least to this manager. You treat people the way you would like to be treated. Also the pool has been closed for over 2 weeks because they failed the inspection, that was also a HUGE let down.More</t>
   </si>
   <si>
-    <t>Dallis h</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r290712843-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -462,9 +636,6 @@
     <t>On trip with sports team, wanted 2 rooms and the rooms were saturated in smoke. The kids went up to the room and got stuck on the elevator. I told the host that I have 2 kids with ahsma! he told us that's all they had. , and he can spray it. I told him that we cant stay here so just give us our refund. He says he couldn't, and we didn't even drop any luggage in the rooms.</t>
   </si>
   <si>
-    <t>sbjay3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r284266068-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -483,7 +654,31 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>Michael F</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r282145395-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>282145395</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>Family Visit</t>
+  </si>
+  <si>
+    <t>This Quality Inn as one where as opposed to one I stayed in recently in Midland, Texas is being remodeled. They are obviously putting an effort into the aesthetics but it is the details that need attention. A door handle falling off to the adjacent room, a light switch not working, the laundry mat machines definitely need to be changed. The offset was the personnel at the hotel. Very nice and serviceable. Overall not a bad place to stay and for the price a good value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r282123779-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>282123779</t>
+  </si>
+  <si>
+    <t>Smoking is the new nonsmoking</t>
+  </si>
+  <si>
+    <t>I requested a nonsmoking room, was put in a smoking. Due to that I was very sick and received to apology or anything. Mold in bathroom. Will not stay again. They really could have the business if they cleaned it up.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r279357581-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -501,9 +696,6 @@
     <t>This is an older hotel just on the edge of Downtown. The room was quite and comfortable. The hotel has an outdoor pool that is ok. Cracker Barrel is just in front of the building which was very nice to visit and eat at since we don't have one near my current home.</t>
   </si>
   <si>
-    <t>Abby121314</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r278833532-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -519,9 +711,6 @@
     <t>It took 30 minutes to check in even though we prepaid.  The room was not clean.  Many of the items on the breakfast buffet were empty.  We informed the desk attendant with no action from him.  The trash can in the breakfast area was overflowing.  The desk person walked past it several times but did nothing.  There was not any other attendant at breakfast.  We requested a wake up call that did not come.</t>
   </si>
   <si>
-    <t>Jemsheart</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r266656738-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -540,7 +729,45 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>cdhb6</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r250183253-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>250183253</t>
+  </si>
+  <si>
+    <t>01/20/2015</t>
+  </si>
+  <si>
+    <t>Dirty room, left after one night of two-night stay</t>
+  </si>
+  <si>
+    <t>I had low expectations going into this hotel as it was one of the few we could get on short notice during Stockyard and Horse Show weekend.  It was for a funeral and we wanted to be close to services; otherwise we would have left immediately.  I kept flipflops on the entire time, including in the shower.  Upon checking in, the exterior and lobby are presentable.  In the room, the carpet was dirty and stained.  The bed looked as though it had been sat on and there was white lint, such as a towel, had been placed on the comforter.  We had two sets of EXTREMELY small towels, and four very small soft pillows for the king-sized bed.  Worse part is the bed had a blood stain on the sheet and black stains on one pillow, though they appeared to have been washed -- just stains.  Still not acceptable.  It was late.  We were tired.  We had a funeral service to go to in the morning.  We stayed.  The mirror in the bathroom had splatters and what appeared to also be white towel lint on in.  The sink had toothpaste, shower had a used bar of soap on the floor, and the toilet had hair on the bowl.  Not the cleanliness I expect for even a cheap budget motel.
+I definitely will not stay here again unless forced to for some unforeseen reason.  When we left after the funeral service,...I had low expectations going into this hotel as it was one of the few we could get on short notice during Stockyard and Horse Show weekend.  It was for a funeral and we wanted to be close to services; otherwise we would have left immediately.  I kept flipflops on the entire time, including in the shower.  Upon checking in, the exterior and lobby are presentable.  In the room, the carpet was dirty and stained.  The bed looked as though it had been sat on and there was white lint, such as a towel, had been placed on the comforter.  We had two sets of EXTREMELY small towels, and four very small soft pillows for the king-sized bed.  Worse part is the bed had a blood stain on the sheet and black stains on one pillow, though they appeared to have been washed -- just stains.  Still not acceptable.  It was late.  We were tired.  We had a funeral service to go to in the morning.  We stayed.  The mirror in the bathroom had splatters and what appeared to also be white towel lint on in.  The sink had toothpaste, shower had a used bar of soap on the floor, and the toilet had hair on the bowl.  Not the cleanliness I expect for even a cheap budget motel.I definitely will not stay here again unless forced to for some unforeseen reason.  When we left after the funeral service, no one was at the front desk or available to check us out and to share our dissatisfaction with.  We left about 2:30 P.M., we waited for 15 minutes, and even called from our cell phone a couple of times, and no one came or answered.  Finally, we put the key on the counter and left, then passed the desk attendant walking from McDonald's and mentioned that we were not coming back.  I have still been charged for that second night, which is frustrating, yet there was no one to complain to ... we simply went to another hotel (Hilton Garden Inn, Las Colinas, which was a polar opposite from the Quality Inn and for $4/night cheaper).  I literally felt dirty even after taking my shower.The curtains also did not cover the lights completely, you could hear footsteps above, and animals both inside and outside (dogs and horses for the folks attending Stockyard).MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>I had low expectations going into this hotel as it was one of the few we could get on short notice during Stockyard and Horse Show weekend.  It was for a funeral and we wanted to be close to services; otherwise we would have left immediately.  I kept flipflops on the entire time, including in the shower.  Upon checking in, the exterior and lobby are presentable.  In the room, the carpet was dirty and stained.  The bed looked as though it had been sat on and there was white lint, such as a towel, had been placed on the comforter.  We had two sets of EXTREMELY small towels, and four very small soft pillows for the king-sized bed.  Worse part is the bed had a blood stain on the sheet and black stains on one pillow, though they appeared to have been washed -- just stains.  Still not acceptable.  It was late.  We were tired.  We had a funeral service to go to in the morning.  We stayed.  The mirror in the bathroom had splatters and what appeared to also be white towel lint on in.  The sink had toothpaste, shower had a used bar of soap on the floor, and the toilet had hair on the bowl.  Not the cleanliness I expect for even a cheap budget motel.
+I definitely will not stay here again unless forced to for some unforeseen reason.  When we left after the funeral service,...I had low expectations going into this hotel as it was one of the few we could get on short notice during Stockyard and Horse Show weekend.  It was for a funeral and we wanted to be close to services; otherwise we would have left immediately.  I kept flipflops on the entire time, including in the shower.  Upon checking in, the exterior and lobby are presentable.  In the room, the carpet was dirty and stained.  The bed looked as though it had been sat on and there was white lint, such as a towel, had been placed on the comforter.  We had two sets of EXTREMELY small towels, and four very small soft pillows for the king-sized bed.  Worse part is the bed had a blood stain on the sheet and black stains on one pillow, though they appeared to have been washed -- just stains.  Still not acceptable.  It was late.  We were tired.  We had a funeral service to go to in the morning.  We stayed.  The mirror in the bathroom had splatters and what appeared to also be white towel lint on in.  The sink had toothpaste, shower had a used bar of soap on the floor, and the toilet had hair on the bowl.  Not the cleanliness I expect for even a cheap budget motel.I definitely will not stay here again unless forced to for some unforeseen reason.  When we left after the funeral service, no one was at the front desk or available to check us out and to share our dissatisfaction with.  We left about 2:30 P.M., we waited for 15 minutes, and even called from our cell phone a couple of times, and no one came or answered.  Finally, we put the key on the counter and left, then passed the desk attendant walking from McDonald's and mentioned that we were not coming back.  I have still been charged for that second night, which is frustrating, yet there was no one to complain to ... we simply went to another hotel (Hilton Garden Inn, Las Colinas, which was a polar opposite from the Quality Inn and for $4/night cheaper).  I literally felt dirty even after taking my shower.The curtains also did not cover the lights completely, you could hear footsteps above, and animals both inside and outside (dogs and horses for the folks attending Stockyard).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r242928278-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>242928278</t>
+  </si>
+  <si>
+    <t>12/04/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>When in Fort Worth, this has been my second time staying at this hotel.  It is conveniently located off the interstate.  It's a nice hotel.  It's close to Cracker Barrel (walking distance).  Serves breakfast in the morning!</t>
+  </si>
+  <si>
+    <t>October 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r225067319-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -558,9 +785,6 @@
     <t>Recently stayed here for 2 days waiting on truck to be repaired at nearby shop. Room was big and clean. Plenty of fresh towels. TV channel selection could be better! Pool needed a good cleaning but was still clean enough to swim. Front desk guy was great our entire stay! Would definitely stay here again if needed.</t>
   </si>
   <si>
-    <t>Jo Lynn M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r213660408-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -582,9 +806,6 @@
     <t>We have stayed here almost one weekend a month for the last four years.  It was an excellent place, well kept, good location, great staff, etc.  However, this weekend has been a turning point.  The room smelled like strong odor of urine.  We asked to change rooms.  They told us we could right after lunch.  We went to eat, came back, and the new attendant said they had no openings and were just sorry.  :(  We tried to get ice; both machines were broken down and told, ....sorry.  Our toilet stopped up.  Twice we called for a plunger.  No response; then, the attendant said, you're not supposed to flush toilet paper at this hotel anymore.  Some kind of problem, not sure what.  Went swimming last night.  At least 15 people that were not staying here were in the pool.  They said it was okay as they knew someone that worked here.   So, no swimming, too crowded and had to step over their beer bottles around the pool.  This has been a great place for so long, but now, we will have to take our FTW stays elsewhere.  It's sad to see it go down the way it has.More</t>
   </si>
   <si>
-    <t>JRIZ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r209535714-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -603,7 +824,40 @@
     <t>Can't recommend this hotel to others.  While the property itself looks OK, there were a few things that really bothered me.  The main thing was the position of my room to the back parking lot which is lit very brightly.  The light shined through the cracks in the curtains directly onto my face in the bed closest to the window.  There was no escaping this and the hotel should really consider installing shutters or something that completely covers the windows in these rooms.  I also saw 2 of the largest cockroaches I've ever seen in this hotel.  One was on the wall in the hallway outside my room and the other was IN my room.  The shower curtain wasn't affixed well, so the curtain rod and curtain actually fell onto my son while he was taking a shower.  Granted, there are worse hotels out there and it's hard to find something pet friendly, but I would not stay here again.More</t>
   </si>
   <si>
-    <t>ct782</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r208990729-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>208990729</t>
+  </si>
+  <si>
+    <t>06/05/2014</t>
+  </si>
+  <si>
+    <t>Convenient location</t>
+  </si>
+  <si>
+    <t>Very convenient to the Stockyards and downtown.  Everything was very clean and comfortable.  Staff was very friendly and helpful.  Breakfast is open and roomy.  We were the only ones at the pool which was nice too.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r207743999-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>207743999</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Great service, and price.</t>
+  </si>
+  <si>
+    <t>We did check the reviews before booking. Always a little cautious about booking online. We were very happy with our room. One of the comments on the review were small pillows. Being on a king size bed I liked the smaller pillows. King size are hard to reposition when you toss and turn like I do. The room was clean, decent price, breakfast. Juan at the front desk was extremely helpful with directions he also printed them out for us. We decided to stay a second night.  Pool was alittle chilly but we stayed in May. I don't need anything fancy just clean and comfortable. I would stay again .MoreShow less</t>
+  </si>
+  <si>
+    <t>We did check the reviews before booking. Always a little cautious about booking online. We were very happy with our room. One of the comments on the review were small pillows. Being on a king size bed I liked the smaller pillows. King size are hard to reposition when you toss and turn like I do. The room was clean, decent price, breakfast. Juan at the front desk was extremely helpful with directions he also printed them out for us. We decided to stay a second night.  Pool was alittle chilly but we stayed in May. I don't need anything fancy just clean and comfortable. I would stay again .More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r207530778-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -612,24 +866,15 @@
     <t>207530778</t>
   </si>
   <si>
-    <t>05/28/2014</t>
-  </si>
-  <si>
     <t>would NOT go back</t>
   </si>
   <si>
     <t>the hotel is clean and was in a good location for us.  My problem was the mattress was TERRIBLE! It sloped to center and I have problems with my back. I awoke at 2am with terrible pain which forced me to stay on the outer 5" where the metal support is located.   In the morning I spoke with the front desk about my problem. I was told they do not have extra mattresses. I asked if they would flip it or trade it with one from  a different room.  NOTHING was done.      Also we asked for ketchup and mustard for breakfast. They don't carry that and WHY would I want it.MoreShow less</t>
   </si>
   <si>
-    <t>May 2014</t>
-  </si>
-  <si>
     <t>the hotel is clean and was in a good location for us.  My problem was the mattress was TERRIBLE! It sloped to center and I have problems with my back. I awoke at 2am with terrible pain which forced me to stay on the outer 5" where the metal support is located.   In the morning I spoke with the front desk about my problem. I was told they do not have extra mattresses. I asked if they would flip it or trade it with one from  a different room.  NOTHING was done.      Also we asked for ketchup and mustard for breakfast. They don't carry that and WHY would I want it.More</t>
   </si>
   <si>
-    <t>youkillemwechillem</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r202128321-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -651,9 +896,6 @@
     <t>We stayed here for two nights while we visited The Stockyards and went to the rodeo.Firstly, we are grateful to the desk staff who picked up our video camera after i left it on the table in reception when we got into our taxi. We got to the rodeo and realised that we'd left our camera in a public reception area back at the hotel. We called them and were very pleased that a member of staff had spotted it and had it safe behind the reception desk! Phew! Thank you.We'd certainly stay here again if we were in Fort Worth.It is within 10 minutes driving of The Stockyards, it's clean, and the staff are efficient.There is a Cracker Barrel right next door if you want to eat and not drive. It's literally 2 minutes walk.All in all, rooms are ok, breakfast was ok, and the location is very handy.More</t>
   </si>
   <si>
-    <t>LCWorkPlayTrav</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r194196348-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -672,7 +914,37 @@
     <t>February 2014</t>
   </si>
   <si>
-    <t>Rick G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r188500310-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>188500310</t>
+  </si>
+  <si>
+    <t>12/25/2013</t>
+  </si>
+  <si>
+    <t>Not Bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We arrived late Christmas Eve to an empty parking lot only to find out that the room we had reserved wasn't clean. Really??? It's midnight and the hotel is completely vacant and there aren't any clean room? Did housekeeping take the day off? Irregardless we stayed in a  supposedly clean room, which appeared so. After driving all day, it was clean enough.Got up this morning went downstairs for breakfast 30 minutes before it was supposed to end only to find everything already put up and found 2 pots of cold coffee. Not the hotel I'll choose again, but it served the purpose  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r188288822-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>188288822</t>
+  </si>
+  <si>
+    <t>12/22/2013</t>
+  </si>
+  <si>
+    <t>Good Place to Stay</t>
+  </si>
+  <si>
+    <t>Rooms were very clean and the property was clean.  I stayed here one night for around 75.00.  They include a complimentary breakfast and wifi.  Typicals quality Inn.The one complaint I had is upon arrival and checkout I had to ring a bell to get service at the front desk.  Each time it appeared as if the clerk was coming from a back office.  More annoying than anything.The ice machine on the first floor wasnt operational, and when I asked about it, the clerk acted like it had been broken for a while.I would say for the money you spend - this is an above average Quality Inn.  I would return.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms were very clean and the property was clean.  I stayed here one night for around 75.00.  They include a complimentary breakfast and wifi.  Typicals quality Inn.The one complaint I had is upon arrival and checkout I had to ring a bell to get service at the front desk.  Each time it appeared as if the clerk was coming from a back office.  More annoying than anything.The ice machine on the first floor wasnt operational, and when I asked about it, the clerk acted like it had been broken for a while.I would say for the money you spend - this is an above average Quality Inn.  I would return.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r182768297-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -693,9 +965,6 @@
     <t>October 2013</t>
   </si>
   <si>
-    <t>ontheroad8o734</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r156587430-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -714,9 +983,6 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>country_kris</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r150143192-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -738,7 +1004,37 @@
     <t>When I walked into the hotel lobby, the gentleman that was working the front desk was lounging in a chair in front of the television?  I understand from the badly written "No Vacancies" sign that the hotel was full, however what about those of us that had reservations?Also, when I arrived to breakfast there was no attendant to make sure it was stocked. The milk was empty, the eggs &amp; sausage sitting in water im sure dripped from the lid, and just not well maintained.As a hotel employee, I probably notice things most people wouldn't. Just expect a certain standard I suppose. The staff I did meet were very friendly, and accomodating.  Also, the two person tub in my room was cracked completely across the bottom. Might be something you want to mention to your maintenance department. Other than that, a great experience. Thank youMore</t>
   </si>
   <si>
-    <t>badman525</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r141667361-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>141667361</t>
+  </si>
+  <si>
+    <t>09/30/2012</t>
+  </si>
+  <si>
+    <t>Not the best but definitely not the worst.</t>
+  </si>
+  <si>
+    <t>I have visited this facility( formerly the Baymont) on two occasions. Initially, I was pleased with the cleanliness of the room and facility. However, upon the second visit the room wasn't quite as impressive. This establishment is nice for the rate. They have complimentary breakfast and wifi which is always a plus. They do have on site laundry(one washer and dryer) for about $2.50 a load. The beds are comfortable not hard like most places.Most of all, the staff is firendly and helpful which is always a plus.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r141297722-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>141297722</t>
+  </si>
+  <si>
+    <t>09/25/2012</t>
+  </si>
+  <si>
+    <t>Linens clean.</t>
+  </si>
+  <si>
+    <t>For this area of Fort Worth it was average fare. They had lots of cameras/ parking lot lights- which is a must. The rate was alittle high, but the sheets &amp; towels were very clean &amp; bed was great. We just needed a place to sleep, so I can't comment on daily housekeeping service. This certainly isn't the best Baymont I've stayed, too dated. Considering what else is available in that area, this seems to be the safest place. We didn't try the breakfast- as there is a Waffle House half a block down we decided to eat at.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r132404682-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -759,9 +1055,6 @@
     <t>June 2012</t>
   </si>
   <si>
-    <t>schoolmarm</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r124493834-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -783,9 +1076,6 @@
     <t>Stayed here 4 days while in the Ft. Worth area.  We had just returned from a cruise out of New Orleans.  King room was okay.  Room was not vaccumned each day and I had to ask after three days to have the bottom sheet changed due to a small burn place in the sheet.  (We don't smoke and I was surprised that this sheet was still in service--probably needed to be sent to the raqg pile).  Request was honored concerning the changing of the sheet.  Main manager was there 2 days.  Ver pleasant and helpful young lady.  Most of the staff was pleasant.  Had to ask for yogurt each day, but it was always available.  Great price on the room.  Would probably stay there again!More</t>
   </si>
   <si>
-    <t>Dawn W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r124197791-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -801,7 +1091,47 @@
     <t>After choosing a REALLY BAD place to stay in Fort Worth just a month before...we payed  close attention to reviews and chose the Baymont. Everything was clean &amp; best of all we felt comfortable &amp; safe. Breakfast was ok, not anything outstanding, except for the waffle station that made your waffle into the shape of Texas.  Good value &amp; SAFE!!</t>
   </si>
   <si>
-    <t>clark1986</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r118831351-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>118831351</t>
+  </si>
+  <si>
+    <t>10/01/2011</t>
+  </si>
+  <si>
+    <t>Great Deal</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 2 nights and enjoyed ourselves.  Loved the quiet at the hotel and the friendly staff.  Cracker  Barrel was next door so it was convenient for us to have dinner.  A microwave and refrigerator were provided.  Also, we made good use of the laundry room.  We found the closet to be much smaller than usual  There was ample counter space in the bathroom for your personal items.  It was a very reasonable hotel!</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r117004717-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>117004717</t>
+  </si>
+  <si>
+    <t>08/20/2011</t>
+  </si>
+  <si>
+    <t>Won't be back!</t>
+  </si>
+  <si>
+    <t>First for the pros: It was clean. That is it. I got a special deal for a king suite. 
+The cons started with the noisy fridg all night long. With a driving day ahead of me, it was horrible to start off not rested. however, the next morning I was excited to use the jucuzzi but it did not work. Went to breakfast, the skim milk was sour. Disqusting! I went to the front desk and told B. that the milk was bad. She didn't look up from her computer and just said "Ok". Very unconcerned. Then I calmed told her about the fridg and the jucuzzi. Another "Ok" then she added "Did you flip the switch on the wall to start the tub?" I said, "No, but how is a guest to know to do that? Maybe it would be nice if you all made a little sign?" Again. "ok". As I checked out, I walked past the bored B. I said, "I just thought you should know that I tried to flip the switch again on the tub since the drain didn't work (!), and it still didn't work. Again "Ok" but very unconcerned. 
+I would have felt a little better about this hotel if she had just said something like, "Oh, I'm so sorry!" or "We'll take care of that right away!" or at least rush to replace the milk! As it is, that was the first...First for the pros: It was clean. That is it. I got a special deal for a king suite. The cons started with the noisy fridg all night long. With a driving day ahead of me, it was horrible to start off not rested. however, the next morning I was excited to use the jucuzzi but it did not work. Went to breakfast, the skim milk was sour. Disqusting! I went to the front desk and told B. that the milk was bad. She didn't look up from her computer and just said "Ok". Very unconcerned. Then I calmed told her about the fridg and the jucuzzi. Another "Ok" then she added "Did you flip the switch on the wall to start the tub?" I said, "No, but how is a guest to know to do that? Maybe it would be nice if you all made a little sign?" Again. "ok". As I checked out, I walked past the bored B. I said, "I just thought you should know that I tried to flip the switch again on the tub since the drain didn't work (!), and it still didn't work. Again "Ok" but very unconcerned. I would have felt a little better about this hotel if she had just said something like, "Oh, I'm so sorry!" or "We'll take care of that right away!" or at least rush to replace the milk! As it is, that was the first time I have ever been to a Baymont and she represented it. Most likely I won't use one again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>First for the pros: It was clean. That is it. I got a special deal for a king suite. 
+The cons started with the noisy fridg all night long. With a driving day ahead of me, it was horrible to start off not rested. however, the next morning I was excited to use the jucuzzi but it did not work. Went to breakfast, the skim milk was sour. Disqusting! I went to the front desk and told B. that the milk was bad. She didn't look up from her computer and just said "Ok". Very unconcerned. Then I calmed told her about the fridg and the jucuzzi. Another "Ok" then she added "Did you flip the switch on the wall to start the tub?" I said, "No, but how is a guest to know to do that? Maybe it would be nice if you all made a little sign?" Again. "ok". As I checked out, I walked past the bored B. I said, "I just thought you should know that I tried to flip the switch again on the tub since the drain didn't work (!), and it still didn't work. Again "Ok" but very unconcerned. 
+I would have felt a little better about this hotel if she had just said something like, "Oh, I'm so sorry!" or "We'll take care of that right away!" or at least rush to replace the milk! As it is, that was the first...First for the pros: It was clean. That is it. I got a special deal for a king suite. The cons started with the noisy fridg all night long. With a driving day ahead of me, it was horrible to start off not rested. however, the next morning I was excited to use the jucuzzi but it did not work. Went to breakfast, the skim milk was sour. Disqusting! I went to the front desk and told B. that the milk was bad. She didn't look up from her computer and just said "Ok". Very unconcerned. Then I calmed told her about the fridg and the jucuzzi. Another "Ok" then she added "Did you flip the switch on the wall to start the tub?" I said, "No, but how is a guest to know to do that? Maybe it would be nice if you all made a little sign?" Again. "ok". As I checked out, I walked past the bored B. I said, "I just thought you should know that I tried to flip the switch again on the tub since the drain didn't work (!), and it still didn't work. Again "Ok" but very unconcerned. I would have felt a little better about this hotel if she had just said something like, "Oh, I'm so sorry!" or "We'll take care of that right away!" or at least rush to replace the milk! As it is, that was the first time I have ever been to a Baymont and she represented it. Most likely I won't use one again!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r115964957-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -831,9 +1161,6 @@
 Internet access is available and FREE.  Housekeeping is good. All in all I wouldn't hesitate to stay here again. You're not going to get all the bells and whistles but it's a clean place to stay for...We stayed here for three nights at the beginning of June. It was crazy hot but the room was cool and inviting. There's nothing really special to report about the room but it was clean and everything worked like it should. We had a room with two queen beds and we were very comfortable. There's a good selection of cable channels, a refrigerator and microwave and good size table with chairs and a desk. I will add that the lighting was a little poor. They could stand to put brighter bulbs in the lamps, lighting fixtures and bathroom. Our stay was pleasant enough. The hotel is in close proximity to restaurants and shopping. Getting off the freeway from those excursions back to the hotel can prove challenging though. Better use a GPS or know the side streets because the traffic is bumper to bumper at times. Whew!The staff was very friendly, knowledgeable and accommodating. The hotel offers a continental breakfast and is pet friendly. I would walk my dog around the property and off to the left of the pool there is some fenced off property with a view of some beautiful horses. I enjoyed watching them as I walked my dog.Internet access is available and FREE.  Housekeeping is good. All in all I wouldn't hesitate to stay here again. You're not going to get all the bells and whistles but it's a clean place to stay for your basic needs.More</t>
   </si>
   <si>
-    <t>FLCarlo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r98785989-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -855,9 +1182,6 @@
     <t>I stayed here for 3 nights and found the staff to be very friendly and anxious to please.  Karl, the girl at the front desk, and the taller lanky fellow who works the night shift were all very accommodating, even to the point of helping me get my booth across the street to the conference site by offering me a ride one cold morning.  Considering the other hotels in the area, this one is the best deal, and appears to be more recently renovated than the others, with exception to the Holiday Inn, which is twice the price.  The beds were good, the TV worked good, I was on the ground floor, near the parking lot and suspected it might be noisy, but it wasnt.  Beds were good and I slept good.  I liked the pillows too.  Bathroom was good, a few loose tiles at the wall base by the toilet, but so what?  The price was right and the quality more than I expected.  The staff really made you feel welcome, even offering cookies when you arrive!More</t>
   </si>
   <si>
-    <t>ganny3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r93917903-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -879,7 +1203,40 @@
     <t>An excellent experience for the money.  Convenient to Interstate 35 and to 820 Loop.  Have tried several times to get connecting rooms in this area without sucess.  Karl guaranteed when I made the reservations they would be available, and he lived up to his word.  Brandy who checked us in was very efficient and friendly.  Even gave us  a courtesy call after we got into the room to be sure everything was ok.Rooms were clean.  Beds were comfortable.  Breakfast had a good selection.  We were towards the end of breakfast both days but food was replenished so we had a good choice.  It included waffles, eggs, biscuits and gravy as well as the usual continental style pastries.It was very convenient for us.   Front desk was very helpful.  I would certainly recommend them .More</t>
   </si>
   <si>
-    <t>jcmudpuppy</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r54973044-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>54973044</t>
+  </si>
+  <si>
+    <t>02/01/2010</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Stayed 4 nights at this hotel just to get away from the ice storm in Oklahoma City, and it was great.  The front desk staff are all very nice and helpful.  The rooms were clean and the bed was comfortable.  Location is perfect to both the Stockyards and downtown.  Can't speak about the breakfast, as we slept in too late, and always missed it.  Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r16415449-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>16415449</t>
+  </si>
+  <si>
+    <t>05/26/2008</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>We stayed at the Baymont Suites last minute as the hotel we originally booked The Budget Suites in Fort Worth turned out to be smelly and disgusting. The staff at the Baymont were friendly and helpful. The hotel was well maintained with a nice pool and breakfast each morning. Our room was ok but the cleaning staff assigned to our room could have used some glasses because it didn't reflect the cleanliness of the rest of the hotel. I would stay there again because the staff was great and it's close proximity to the highway and the Cracker Barrel restaurant.</t>
+  </si>
+  <si>
+    <t>May 2008</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r16182724-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -895,15 +1252,6 @@
   </si>
   <si>
     <t>This hotel was easy to reach from the interstate, staff was friendly, rooms and lobby were sparkling clean. In fact, the lobby was freshly mopped and smelled very fresh and sanitary while I was checking out.  I did not have the free breakfast, but ate at Cracker Barrel which is right next door instead. But from what I saw, the breakfast looked attractive and ample. Even though it was a pet-friendly hotel, I did not notice any "pet" odor.  I couldn't have been happier with this hotel. The rate was very reasonable also.</t>
-  </si>
-  <si>
-    <t>May 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>mosbysfamily</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d224284-r6534544-Quality_Inn_Fort_Worth-Fort_Worth_Texas.html</t>
@@ -1426,47 +1774,43 @@
       <c r="A2" t="n">
         <v>32911</v>
       </c>
-      <c r="B2" t="n">
-        <v>174290</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1480,54 +1824,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>32911</v>
       </c>
-      <c r="B3" t="n">
-        <v>36167</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1541,54 +1881,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>32911</v>
       </c>
-      <c r="B4" t="n">
-        <v>70661</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>61</v>
-      </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1602,115 +1938,113 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>32911</v>
       </c>
-      <c r="B5" t="n">
-        <v>174291</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
         <v>70</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
-      </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>32911</v>
       </c>
-      <c r="B6" t="n">
-        <v>174292</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>79</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1724,54 +2058,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>32911</v>
       </c>
-      <c r="B7" t="n">
-        <v>174293</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
         <v>85</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>86</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>87</v>
       </c>
-      <c r="K7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1785,54 +2115,50 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>32911</v>
       </c>
-      <c r="B8" t="n">
-        <v>174294</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
         <v>92</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" t="s">
-        <v>96</v>
-      </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1846,188 +2172,164 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>32911</v>
       </c>
-      <c r="B9" t="n">
-        <v>174295</v>
-      </c>
-      <c r="C9" t="s">
-        <v>98</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>32911</v>
       </c>
-      <c r="B10" t="n">
-        <v>174296</v>
-      </c>
-      <c r="C10" t="s">
-        <v>105</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>32911</v>
       </c>
-      <c r="B11" t="n">
-        <v>174297</v>
-      </c>
-      <c r="C11" t="s">
-        <v>113</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2041,54 +2343,50 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>32911</v>
       </c>
-      <c r="B12" t="n">
-        <v>174298</v>
-      </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2102,328 +2400,290 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>32911</v>
       </c>
-      <c r="B13" t="n">
-        <v>174299</v>
-      </c>
-      <c r="C13" t="s">
-        <v>126</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>3</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>32911</v>
       </c>
-      <c r="B14" t="n">
-        <v>174300</v>
-      </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>32911</v>
       </c>
-      <c r="B15" t="n">
-        <v>174301</v>
-      </c>
-      <c r="C15" t="s">
-        <v>142</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="O15" t="s">
-        <v>90</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>32911</v>
       </c>
-      <c r="B16" t="n">
-        <v>174302</v>
-      </c>
-      <c r="C16" t="s">
-        <v>148</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K16" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="O16" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>3</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>32911</v>
       </c>
-      <c r="B17" t="n">
-        <v>1950</v>
-      </c>
-      <c r="C17" t="s">
-        <v>155</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="O17" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R17" t="s"/>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2431,63 +2691,59 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>32911</v>
       </c>
-      <c r="B18" t="n">
-        <v>174303</v>
-      </c>
-      <c r="C18" t="s">
-        <v>161</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
         <v>1</v>
       </c>
-      <c r="N18" t="s">
-        <v>154</v>
-      </c>
-      <c r="O18" t="s">
-        <v>62</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="S18" t="n">
         <v>1</v>
       </c>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>1</v>
@@ -2498,127 +2754,121 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>32911</v>
       </c>
-      <c r="B19" t="n">
-        <v>174304</v>
-      </c>
-      <c r="C19" t="s">
-        <v>167</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="O19" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>32911</v>
       </c>
-      <c r="B20" t="n">
-        <v>174305</v>
-      </c>
-      <c r="C20" t="s">
-        <v>174</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="J20" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="L20" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
       <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2626,212 +2876,174 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>32911</v>
       </c>
-      <c r="B21" t="n">
-        <v>174306</v>
-      </c>
-      <c r="C21" t="s">
-        <v>180</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="J21" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="L21" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>2</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>32911</v>
       </c>
-      <c r="B22" t="n">
-        <v>73020</v>
-      </c>
-      <c r="C22" t="s">
-        <v>188</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="O22" t="s">
-        <v>69</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>3</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>32911</v>
       </c>
-      <c r="B23" t="n">
-        <v>174307</v>
-      </c>
-      <c r="C23" t="s">
-        <v>195</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="J23" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="K23" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="n">
         <v>3</v>
       </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2839,70 +3051,62 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>32911</v>
       </c>
-      <c r="B24" t="n">
-        <v>174308</v>
-      </c>
-      <c r="C24" t="s">
-        <v>203</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="J24" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="K24" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
-      </c>
-      <c r="P24" t="n">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
         <v>3</v>
       </c>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2910,131 +3114,123 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>32911</v>
       </c>
-      <c r="B25" t="n">
-        <v>174309</v>
-      </c>
-      <c r="C25" t="s">
-        <v>211</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="J25" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="K25" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="O25" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>32911</v>
       </c>
-      <c r="B26" t="n">
-        <v>5193</v>
-      </c>
-      <c r="C26" t="s">
-        <v>218</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="J26" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="O26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3042,70 +3238,60 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>32911</v>
       </c>
-      <c r="B27" t="n">
-        <v>174310</v>
-      </c>
-      <c r="C27" t="s">
-        <v>225</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="J27" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="K27" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="O27" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3113,70 +3299,62 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>32911</v>
       </c>
-      <c r="B28" t="n">
-        <v>174311</v>
-      </c>
-      <c r="C28" t="s">
-        <v>232</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="J28" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="K28" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="L28" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3184,70 +3362,62 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>32911</v>
       </c>
-      <c r="B29" t="n">
-        <v>36043</v>
-      </c>
-      <c r="C29" t="s">
-        <v>240</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="J29" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="K29" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="O29" t="s">
-        <v>90</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3255,137 +3425,119 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>32911</v>
       </c>
-      <c r="B30" t="n">
-        <v>89984</v>
-      </c>
-      <c r="C30" t="s">
-        <v>247</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="J30" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="K30" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="L30" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>32911</v>
       </c>
-      <c r="B31" t="n">
-        <v>7662</v>
-      </c>
-      <c r="C31" t="s">
-        <v>255</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="J31" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="K31" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>211</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3393,66 +3545,62 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>32911</v>
       </c>
-      <c r="B32" t="n">
-        <v>174312</v>
-      </c>
-      <c r="C32" t="s">
-        <v>261</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="J32" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="K32" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="L32" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>267</v>
+        <v>211</v>
       </c>
       <c r="O32" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
       <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>4</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3460,141 +3608,119 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>32911</v>
       </c>
-      <c r="B33" t="n">
-        <v>174313</v>
-      </c>
-      <c r="C33" t="s">
-        <v>269</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="J33" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="K33" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="L33" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="O33" t="s">
-        <v>90</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>32911</v>
       </c>
-      <c r="B34" t="n">
-        <v>174314</v>
-      </c>
-      <c r="C34" t="s">
-        <v>277</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="J34" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="K34" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="L34" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="O34" t="s">
-        <v>69</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
       <c r="R34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3602,70 +3728,62 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>32911</v>
       </c>
-      <c r="B35" t="n">
-        <v>174315</v>
-      </c>
-      <c r="C35" t="s">
-        <v>285</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="J35" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="K35" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="L35" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="O35" t="s">
-        <v>292</v>
+        <v>99</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
         <v>5</v>
       </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
         <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3673,70 +3791,62 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>32911</v>
       </c>
-      <c r="B36" t="n">
-        <v>174316</v>
-      </c>
-      <c r="C36" t="s">
-        <v>293</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="J36" t="s">
-        <v>296</v>
+        <v>252</v>
       </c>
       <c r="K36" t="s">
-        <v>297</v>
+        <v>253</v>
       </c>
       <c r="L36" t="s">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="s">
-        <v>299</v>
-      </c>
-      <c r="O36" t="s">
-        <v>90</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R36" t="n">
         <v>4</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3744,7 +3854,1699 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>256</v>
+      </c>
+      <c r="J37" t="s">
+        <v>257</v>
+      </c>
+      <c r="K37" t="s">
+        <v>258</v>
+      </c>
+      <c r="L37" t="s">
+        <v>259</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>260</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>262</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>263</v>
+      </c>
+      <c r="J38" t="s">
+        <v>264</v>
+      </c>
+      <c r="K38" t="s">
+        <v>265</v>
+      </c>
+      <c r="L38" t="s">
+        <v>266</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>260</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>269</v>
+      </c>
+      <c r="J39" t="s">
+        <v>270</v>
+      </c>
+      <c r="K39" t="s">
+        <v>271</v>
+      </c>
+      <c r="L39" t="s">
+        <v>272</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>273</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>274</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>275</v>
+      </c>
+      <c r="J40" t="s">
+        <v>276</v>
+      </c>
+      <c r="K40" t="s">
+        <v>277</v>
+      </c>
+      <c r="L40" t="s">
+        <v>278</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>273</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>281</v>
+      </c>
+      <c r="J41" t="s">
+        <v>276</v>
+      </c>
+      <c r="K41" t="s">
+        <v>282</v>
+      </c>
+      <c r="L41" t="s">
+        <v>283</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>273</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>285</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>286</v>
+      </c>
+      <c r="J42" t="s">
+        <v>287</v>
+      </c>
+      <c r="K42" t="s">
+        <v>288</v>
+      </c>
+      <c r="L42" t="s">
+        <v>289</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>290</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>292</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>293</v>
+      </c>
+      <c r="J43" t="s">
+        <v>294</v>
+      </c>
+      <c r="K43" t="s">
+        <v>295</v>
+      </c>
+      <c r="L43" t="s">
+        <v>296</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>297</v>
+      </c>
+      <c r="O43" t="s">
+        <v>99</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
         <v>298</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>299</v>
+      </c>
+      <c r="J44" t="s">
+        <v>300</v>
+      </c>
+      <c r="K44" t="s">
+        <v>301</v>
+      </c>
+      <c r="L44" t="s">
+        <v>302</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>303</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>304</v>
+      </c>
+      <c r="J45" t="s">
+        <v>305</v>
+      </c>
+      <c r="K45" t="s">
+        <v>306</v>
+      </c>
+      <c r="L45" t="s">
+        <v>307</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>309</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>310</v>
+      </c>
+      <c r="J46" t="s">
+        <v>311</v>
+      </c>
+      <c r="K46" t="s">
+        <v>312</v>
+      </c>
+      <c r="L46" t="s">
+        <v>313</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>314</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>315</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>316</v>
+      </c>
+      <c r="J47" t="s">
+        <v>317</v>
+      </c>
+      <c r="K47" t="s">
+        <v>318</v>
+      </c>
+      <c r="L47" t="s">
+        <v>319</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>320</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>321</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>322</v>
+      </c>
+      <c r="J48" t="s">
+        <v>323</v>
+      </c>
+      <c r="K48" t="s">
+        <v>324</v>
+      </c>
+      <c r="L48" t="s">
+        <v>325</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>326</v>
+      </c>
+      <c r="O48" t="s">
+        <v>81</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>328</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>329</v>
+      </c>
+      <c r="J49" t="s">
+        <v>330</v>
+      </c>
+      <c r="K49" t="s">
+        <v>331</v>
+      </c>
+      <c r="L49" t="s">
+        <v>332</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>333</v>
+      </c>
+      <c r="O49" t="s">
+        <v>74</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>334</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>335</v>
+      </c>
+      <c r="J50" t="s">
+        <v>336</v>
+      </c>
+      <c r="K50" t="s">
+        <v>337</v>
+      </c>
+      <c r="L50" t="s">
+        <v>338</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>333</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>339</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>340</v>
+      </c>
+      <c r="J51" t="s">
+        <v>341</v>
+      </c>
+      <c r="K51" t="s">
+        <v>342</v>
+      </c>
+      <c r="L51" t="s">
+        <v>343</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>344</v>
+      </c>
+      <c r="O51" t="s">
+        <v>99</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>345</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>346</v>
+      </c>
+      <c r="J52" t="s">
+        <v>347</v>
+      </c>
+      <c r="K52" t="s">
+        <v>348</v>
+      </c>
+      <c r="L52" t="s">
+        <v>349</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>350</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>352</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>353</v>
+      </c>
+      <c r="J53" t="s">
+        <v>354</v>
+      </c>
+      <c r="K53" t="s">
+        <v>355</v>
+      </c>
+      <c r="L53" t="s">
+        <v>356</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>357</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>358</v>
+      </c>
+      <c r="J54" t="s">
+        <v>359</v>
+      </c>
+      <c r="K54" t="s">
+        <v>360</v>
+      </c>
+      <c r="L54" t="s">
+        <v>361</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>362</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>363</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>364</v>
+      </c>
+      <c r="J55" t="s">
+        <v>365</v>
+      </c>
+      <c r="K55" t="s">
+        <v>366</v>
+      </c>
+      <c r="L55" t="s">
+        <v>367</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>368</v>
+      </c>
+      <c r="O55" t="s">
+        <v>74</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>370</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>371</v>
+      </c>
+      <c r="J56" t="s">
+        <v>372</v>
+      </c>
+      <c r="K56" t="s">
+        <v>373</v>
+      </c>
+      <c r="L56" t="s">
+        <v>374</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>375</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>377</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>378</v>
+      </c>
+      <c r="J57" t="s">
+        <v>379</v>
+      </c>
+      <c r="K57" t="s">
+        <v>380</v>
+      </c>
+      <c r="L57" t="s">
+        <v>381</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>382</v>
+      </c>
+      <c r="O57" t="s">
+        <v>99</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>384</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>385</v>
+      </c>
+      <c r="J58" t="s">
+        <v>386</v>
+      </c>
+      <c r="K58" t="s">
+        <v>387</v>
+      </c>
+      <c r="L58" t="s">
+        <v>388</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>389</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>391</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>392</v>
+      </c>
+      <c r="J59" t="s">
+        <v>393</v>
+      </c>
+      <c r="K59" t="s">
+        <v>394</v>
+      </c>
+      <c r="L59" t="s">
+        <v>395</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>396</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>397</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>398</v>
+      </c>
+      <c r="J60" t="s">
+        <v>399</v>
+      </c>
+      <c r="K60" t="s">
+        <v>400</v>
+      </c>
+      <c r="L60" t="s">
+        <v>401</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>402</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>403</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>404</v>
+      </c>
+      <c r="J61" t="s">
+        <v>405</v>
+      </c>
+      <c r="K61" t="s">
+        <v>406</v>
+      </c>
+      <c r="L61" t="s">
+        <v>407</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>402</v>
+      </c>
+      <c r="O61" t="s">
+        <v>74</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>32911</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>408</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>409</v>
+      </c>
+      <c r="J62" t="s">
+        <v>410</v>
+      </c>
+      <c r="K62" t="s">
+        <v>411</v>
+      </c>
+      <c r="L62" t="s">
+        <v>412</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>413</v>
+      </c>
+      <c r="O62" t="s">
+        <v>99</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
